--- a/derivatives/palm_data/output_corrcon_ise_ee/ppi_ee_output_formatted.xlsx
+++ b/derivatives/palm_data/output_corrcon_ise_ee/ppi_ee_output_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/derivatives/palm_data/output_corrcon_ise_ee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8A4B8385-A800-2C4F-AC7E-79F273375DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD1DD27B-4B88-EF4B-87B7-6CE4BA97B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25860" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25860" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_output" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="527" uniqueCount="56">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="638" uniqueCount="83">
   <si>
     <t>rFFA</t>
   </si>
@@ -227,12 +227,93 @@
   <si>
     <t>PPI: VS-vmPFC, Outcome (corrcon, ise, ee)</t>
   </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Domain*Feedback</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>c1: Main Effect +</t>
+  </si>
+  <si>
+    <t>c2: Main Effect -</t>
+  </si>
+  <si>
+    <t>c3: RS +</t>
+  </si>
+  <si>
+    <t>c4: RS -</t>
+  </si>
+  <si>
+    <t>c5: RS squared +</t>
+  </si>
+  <si>
+    <t>c6: RS squared -</t>
+  </si>
+  <si>
+    <t>c7: SU +</t>
+  </si>
+  <si>
+    <t>c8: SU -</t>
+  </si>
+  <si>
+    <t>c9: SUxRS +</t>
+  </si>
+  <si>
+    <t>c10: SUxRS -</t>
+  </si>
+  <si>
+    <t>c11: SUxRS squared +</t>
+  </si>
+  <si>
+    <t>c12: SUxRS squared -</t>
+  </si>
+  <si>
+    <t>Social reward processing</t>
+  </si>
+  <si>
+    <t>Reward processing</t>
+  </si>
+  <si>
+    <t>Social processing</t>
+  </si>
+  <si>
+    <t>Social (Reward &gt; Loss) &gt; Monetary (Reward &gt; Loss)</t>
+  </si>
+  <si>
+    <t>(Social Reward + Monetary Reward) &gt; (Social Loss + Monetary Loss)</t>
+  </si>
+  <si>
+    <t>(Social Reward + Social Loss) &gt; (Monetary Reward + Monetary Loss)</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Domain x Feedback</t>
+  </si>
+  <si>
+    <t>Decision phase</t>
+  </si>
+  <si>
+    <t>Social stimuli</t>
+  </si>
+  <si>
+    <t>(Social Decision &gt; Baseline) &gt; (Monetary Decision &gt; Basline)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +470,27 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -799,7 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,13 +946,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -864,6 +960,40 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1220,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR102"/>
+  <dimension ref="A1:BH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P49" workbookViewId="0">
-      <selection activeCell="AB70" sqref="AB70:AF83"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2:BH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,34 +1370,40 @@
     <col min="12" max="13" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="17"/>
-    <col min="22" max="22" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" style="17"/>
-    <col min="28" max="28" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="8.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" style="17"/>
-    <col min="34" max="34" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.83203125" style="17"/>
-    <col min="40" max="40" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="16"/>
+    <col min="22" max="22" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="16"/>
+    <col min="28" max="28" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="16"/>
+    <col min="34" max="34" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.83203125" style="16"/>
+    <col min="40" max="40" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.83203125" style="1"/>
+    <col min="47" max="47" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="57" width="10.83203125" style="1"/>
+    <col min="58" max="58" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -1286,67 +1422,92 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="P2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="P2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="18" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="18" t="s">
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="18" t="s">
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BF2" s="33">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH2" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -1384,83 +1545,122 @@
       <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AE3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AF3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AI3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AK3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AL3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="21" t="s">
+      <c r="AO3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="21" t="s">
+      <c r="AP3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AR3" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH3" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1500,91 +1700,130 @@
       <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="16">
         <f>B4</f>
         <v>0.34589999999999999</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="16">
         <f t="shared" ref="R4:T4" si="0">C4</f>
         <v>0.36320000000000002</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="16">
         <f t="shared" si="0"/>
         <v>0.7712</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="17" cm="1">
+      <c r="W4" s="16" cm="1">
         <f t="array" ref="W4:Z4">B5:E5</f>
         <v>0.69379999999999997</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="16">
         <v>0.25480000000000003</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="16">
         <v>0.62339999999999995</v>
       </c>
-      <c r="Z4" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="22" t="s">
+      <c r="Z4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="17" cm="1">
+      <c r="AC4" s="16" cm="1">
         <f t="array" ref="AC4:AF4">B6:E6</f>
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="AD4" s="17">
+      <c r="AD4" s="16">
         <v>0.49299999999999999</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="16">
         <v>0.87549999999999994</v>
       </c>
-      <c r="AF4" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="22" t="s">
+      <c r="AF4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="17" cm="1">
+      <c r="AI4" s="16" cm="1">
         <f t="array" ref="AI4:AL4">B7:E7</f>
         <v>0.45040000000000002</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AJ4" s="16">
         <v>0.32</v>
       </c>
-      <c r="AK4" s="17">
+      <c r="AK4" s="16">
         <v>0.72909999999999997</v>
       </c>
-      <c r="AL4" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="22" t="s">
+      <c r="AL4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="17" cm="1">
+      <c r="AO4" s="16" cm="1">
         <f t="array" ref="AO4:AR4">B8:E8</f>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AP4" s="16">
         <v>0.50480000000000003</v>
       </c>
-      <c r="AQ4" s="17">
+      <c r="AQ4" s="16">
         <v>0.87949999999999995</v>
       </c>
-      <c r="AR4" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV4" s="25">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="AW4" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AX4" s="25">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="AY4" s="25">
+        <v>1.1788000000000001</v>
+      </c>
+      <c r="AZ4" s="25">
+        <v>0.1249</v>
+      </c>
+      <c r="BA4" s="25">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="BB4" s="25">
+        <v>-0.26579999999999998</v>
+      </c>
+      <c r="BC4" s="25">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="BD4" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="BF4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH4" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1624,91 +1863,130 @@
       <c r="M5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <f>F4</f>
         <v>-0.34589999999999999</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="16">
         <f t="shared" ref="R5:T5" si="1">G4</f>
         <v>0.63690000000000002</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="16">
         <f t="shared" si="1"/>
         <v>0.95440000000000003</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="17" cm="1">
+      <c r="W5" s="16" cm="1">
         <f t="array" ref="W5:Z5">F5:I5</f>
         <v>-0.69379999999999997</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="16">
         <v>0.74529999999999996</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="16">
         <v>0.98560000000000003</v>
       </c>
-      <c r="Z5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="22" t="s">
+      <c r="Z5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="17" cm="1">
+      <c r="AC5" s="16" cm="1">
         <f t="array" ref="AC5:AF5">F6:I6</f>
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AD5" s="16">
         <v>0.5071</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="16">
         <v>0.89219999999999999</v>
       </c>
-      <c r="AF5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AF5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="17" cm="1">
+      <c r="AI5" s="16" cm="1">
         <f t="array" ref="AI5:AL5">F7:I7</f>
         <v>-0.45040000000000002</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AJ5" s="16">
         <v>0.68010000000000004</v>
       </c>
-      <c r="AK5" s="17">
+      <c r="AK5" s="16">
         <v>0.96719999999999995</v>
       </c>
-      <c r="AL5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="22" t="s">
+      <c r="AL5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AO5" s="17" cm="1">
+      <c r="AO5" s="16" cm="1">
         <f t="array" ref="AO5:AR5">F8:I8</f>
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="AP5" s="17">
+      <c r="AP5" s="16">
         <v>0.49530000000000002</v>
       </c>
-      <c r="AQ5" s="17">
+      <c r="AQ5" s="16">
         <v>0.8891</v>
       </c>
-      <c r="AR5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV5" s="25">
+        <v>-0.45040000000000002</v>
+      </c>
+      <c r="AW5" s="25">
+        <v>0.68010000000000004</v>
+      </c>
+      <c r="AX5" s="25">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="AY5" s="25">
+        <v>-1.1788000000000001</v>
+      </c>
+      <c r="AZ5" s="25">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="BA5" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="BB5" s="25">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="BC5" s="25">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="BD5" s="25">
+        <v>0.78129999999999999</v>
+      </c>
+      <c r="BF5" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH5" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1748,88 +2026,127 @@
       <c r="M6" s="5">
         <v>1</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="17" cm="1">
+      <c r="Q6" s="16" cm="1">
         <f t="array" ref="Q6:T6">J4:M4</f>
         <v>-0.57540000000000002</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>0.72199999999999998</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <v>0.98209999999999997</v>
       </c>
-      <c r="T6" s="17">
-        <v>1</v>
-      </c>
-      <c r="V6" s="22" t="s">
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
+      <c r="V6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="17" cm="1">
+      <c r="W6" s="16" cm="1">
         <f t="array" ref="W6:Z6">J5:M5</f>
         <v>-0.55620000000000003</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="16">
         <v>0.71330000000000005</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="16">
         <v>0.98089999999999999</v>
       </c>
-      <c r="Z6" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="22" t="s">
+      <c r="Z6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="17" cm="1">
+      <c r="AC6" s="16" cm="1">
         <f t="array" ref="AC6:AF6">J6:M6</f>
         <v>0.36680000000000001</v>
       </c>
-      <c r="AD6" s="17">
+      <c r="AD6" s="16">
         <v>0.35780000000000001</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="16">
         <v>0.77969999999999995</v>
       </c>
-      <c r="AF6" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="22" t="s">
+      <c r="AF6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="17" cm="1">
+      <c r="AI6" s="16" cm="1">
         <f t="array" ref="AI6:AL6">J7:M7</f>
         <v>1.7279</v>
       </c>
-      <c r="AJ6" s="17" t="str">
+      <c r="AJ6" s="16" t="str">
         <v>0.0467*</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AK6" s="16">
         <v>0.1757</v>
       </c>
-      <c r="AL6" s="17">
+      <c r="AL6" s="16">
         <v>0.88419999999999999</v>
       </c>
-      <c r="AN6" s="22" t="s">
+      <c r="AN6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="17" cm="1">
+      <c r="AO6" s="16" cm="1">
         <f t="array" ref="AO6:AR6">J8:M8</f>
         <v>2.5282</v>
       </c>
-      <c r="AP6" s="17" t="str">
+      <c r="AP6" s="16" t="str">
         <v>0.0074**</v>
       </c>
-      <c r="AQ6" s="17" t="str">
+      <c r="AQ6" s="16" t="str">
         <v>0.0356*</v>
       </c>
-      <c r="AR6" s="17">
+      <c r="AR6" s="16">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV6" s="25">
+        <v>1.7279</v>
+      </c>
+      <c r="AW6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX6" s="25">
+        <v>0.1757</v>
+      </c>
+      <c r="AY6" s="25">
+        <v>-6.7100000000000007E-2</v>
+      </c>
+      <c r="AZ6" s="25">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="BA6" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="BB6" s="25">
+        <v>-0.9607</v>
+      </c>
+      <c r="BC6" s="25">
+        <v>0.8216</v>
+      </c>
+      <c r="BD6" s="25">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="BF6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG6" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH6" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1869,88 +2186,118 @@
       <c r="M7" s="5">
         <v>0.88419999999999999</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="17" cm="1">
+      <c r="Q7" s="16" cm="1">
         <f t="array" ref="Q7:T7">B12:E12</f>
         <v>0.57540000000000002</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>0.27810000000000001</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>0.67830000000000001</v>
       </c>
-      <c r="T7" s="17">
-        <v>1</v>
-      </c>
-      <c r="V7" s="22" t="s">
+      <c r="T7" s="16">
+        <v>1</v>
+      </c>
+      <c r="V7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="17" cm="1">
+      <c r="W7" s="16" cm="1">
         <f t="array" ref="W7:Z7">B13:E13</f>
         <v>0.55620000000000003</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="16">
         <v>0.2868</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="16">
         <v>0.68869999999999998</v>
       </c>
-      <c r="Z7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="22" t="s">
+      <c r="Z7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="17" cm="1">
+      <c r="AC7" s="16" cm="1">
         <f t="array" ref="AC7:AF7">B14:E14</f>
         <v>-0.36680000000000001</v>
       </c>
-      <c r="AD7" s="17">
+      <c r="AD7" s="16">
         <v>0.64229999999999998</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="16">
         <v>0.96</v>
       </c>
-      <c r="AF7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="22" t="s">
+      <c r="AF7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="17" cm="1">
+      <c r="AI7" s="16" cm="1">
         <f t="array" ref="AI7:AL7">B15:E15</f>
         <v>-1.7279</v>
       </c>
-      <c r="AJ7" s="17">
+      <c r="AJ7" s="16">
         <v>0.95340000000000003</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AK7" s="16">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AL7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="22" t="s">
+      <c r="AL7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AO7" s="17" cm="1">
+      <c r="AO7" s="16" cm="1">
         <f t="array" ref="AO7:AR7">B16:E16</f>
         <v>-2.5282</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AP7" s="16">
         <v>0.99270000000000003</v>
       </c>
-      <c r="AQ7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AQ7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV7" s="25">
+        <v>-1.7279</v>
+      </c>
+      <c r="AW7" s="25">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="AX7" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="AY7" s="25">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="AZ7" s="25">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="BA7" s="25">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="BB7" s="25">
+        <v>0.9607</v>
+      </c>
+      <c r="BC7" s="25">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="BD7" s="25">
+        <v>0.47349999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1990,88 +2337,118 @@
       <c r="M8" s="6">
         <v>0.32800000000000001</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="17" cm="1">
+      <c r="Q8" s="16" cm="1">
         <f t="array" ref="Q8:T8">F12:I12</f>
         <v>0.13070000000000001</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>0.44940000000000002</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>0.86209999999999998</v>
       </c>
-      <c r="T8" s="17">
-        <v>1</v>
-      </c>
-      <c r="V8" s="22" t="s">
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
+      <c r="V8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="17" cm="1">
+      <c r="W8" s="16" cm="1">
         <f t="array" ref="W8:Z8">F13:I13</f>
         <v>0.27450000000000002</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="16">
         <v>0.38829999999999998</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="16">
         <v>0.8115</v>
       </c>
-      <c r="Z8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="22" t="s">
+      <c r="Z8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" s="17" cm="1">
+      <c r="AC8" s="16" cm="1">
         <f t="array" ref="AC8:AF8">F14:I14</f>
         <v>0.4864</v>
       </c>
-      <c r="AD8" s="17">
+      <c r="AD8" s="16">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AE8" s="17">
+      <c r="AE8" s="16">
         <v>0.72450000000000003</v>
       </c>
-      <c r="AF8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="22" t="s">
+      <c r="AF8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="17" cm="1">
+      <c r="AI8" s="16" cm="1">
         <f t="array" ref="AI8:AL8">F15:I15</f>
         <v>-0.3105</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AJ8" s="16">
         <v>0.62419999999999998</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AK8" s="16">
         <v>0.95630000000000004</v>
       </c>
-      <c r="AL8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="22" t="s">
+      <c r="AL8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AO8" s="17" cm="1">
+      <c r="AO8" s="16" cm="1">
         <f t="array" ref="AO8:AR8">F16:I16</f>
         <v>0.87680000000000002</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AP8" s="16">
         <v>0.192</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="AQ8" s="16">
         <v>0.53820000000000001</v>
       </c>
-      <c r="AR8" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>-0.3105</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>-0.56489999999999996</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>0.9929</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>-0.1298</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="BD8" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2087,189 +2464,249 @@
       <c r="M9" s="5"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="17" cm="1">
+      <c r="Q9" s="16" cm="1">
         <f t="array" ref="Q9:T9">J12:M12</f>
         <v>-0.13070000000000001</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="16">
         <v>0.55069999999999997</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <v>0.92269999999999996</v>
       </c>
-      <c r="T9" s="17">
-        <v>1</v>
-      </c>
-      <c r="V9" s="22" t="s">
+      <c r="T9" s="16">
+        <v>1</v>
+      </c>
+      <c r="V9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="17" cm="1">
+      <c r="W9" s="16" cm="1">
         <f t="array" ref="W9:Z9">J13:M13</f>
         <v>-0.27450000000000002</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="16">
         <v>0.61180000000000001</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="16">
         <v>0.94669999999999999</v>
       </c>
-      <c r="Z9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="22" t="s">
+      <c r="Z9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AC9" s="17" cm="1">
+      <c r="AC9" s="16" cm="1">
         <f t="array" ref="AC9:AF9">J14:M14</f>
         <v>-0.4864</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="16">
         <v>0.67510000000000003</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="16">
         <v>0.97360000000000002</v>
       </c>
-      <c r="AF9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="22" t="s">
+      <c r="AF9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AI9" s="17" cm="1">
+      <c r="AI9" s="16" cm="1">
         <f t="array" ref="AI9:AL9">J15:M15</f>
         <v>0.3105</v>
       </c>
-      <c r="AJ9" s="17">
+      <c r="AJ9" s="16">
         <v>0.37590000000000001</v>
       </c>
-      <c r="AK9" s="17">
+      <c r="AK9" s="16">
         <v>0.7923</v>
       </c>
-      <c r="AL9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="22" t="s">
+      <c r="AL9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AO9" s="17" cm="1">
+      <c r="AO9" s="16" cm="1">
         <f t="array" ref="AO9:AR9">J16:M16</f>
         <v>-0.87680000000000002</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AP9" s="16">
         <v>0.80810000000000004</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AQ9" s="16">
         <v>0.99429999999999996</v>
       </c>
-      <c r="AR9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV9" s="25">
+        <v>0.3105</v>
+      </c>
+      <c r="AW9" s="25">
+        <v>0.37590000000000001</v>
+      </c>
+      <c r="AX9" s="25">
+        <v>0.7923</v>
+      </c>
+      <c r="AY9" s="25">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="AZ9" s="25">
+        <v>0.2802</v>
+      </c>
+      <c r="BA9" s="25">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="BB9" s="25">
+        <v>0.1298</v>
+      </c>
+      <c r="BC9" s="25">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="BD9" s="25">
+        <v>0.83160000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="P10" s="22" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="P10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="17" cm="1">
+      <c r="Q10" s="16" cm="1">
         <f t="array" ref="Q10:T10">B20:E20</f>
         <v>1.8070999999999999</v>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="16" t="str">
         <v>0.0433*</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>0.15790000000000001</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="16">
         <v>0.84140000000000004</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="17" cm="1">
+      <c r="W10" s="16" cm="1">
         <f t="array" ref="W10:Z10">B21:E21</f>
         <v>-0.20760000000000001</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="16">
         <v>0.57889999999999997</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="16">
         <v>0.9405</v>
       </c>
-      <c r="Z10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="22" t="s">
+      <c r="Z10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AC10" s="17" cm="1">
+      <c r="AC10" s="16" cm="1">
         <f t="array" ref="AC10:AF10">B22:E22</f>
         <v>-1.6415</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AD10" s="16">
         <v>0.94489999999999996</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="16">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AF10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="22" t="s">
+      <c r="AF10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AI10" s="17" cm="1">
+      <c r="AI10" s="16" cm="1">
         <f t="array" ref="AI10:AL10">B23:E23</f>
         <v>-2.5251000000000001</v>
       </c>
-      <c r="AJ10" s="17">
+      <c r="AJ10" s="16">
         <v>0.99309999999999998</v>
       </c>
-      <c r="AK10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="22" t="s">
+      <c r="AK10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AO10" s="17" cm="1">
+      <c r="AO10" s="16" cm="1">
         <f t="array" ref="AO10:AR10">B24:E24</f>
         <v>-0.56020000000000003</v>
       </c>
-      <c r="AP10" s="17">
+      <c r="AP10" s="16">
         <v>0.70309999999999995</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="AQ10" s="16">
         <v>0.97899999999999998</v>
       </c>
-      <c r="AR10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>-2.5251000000000001</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="AX10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="25">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AZ10" s="25">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="BA10" s="25">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="BB10" s="25">
+        <v>2.1168999999999998</v>
+      </c>
+      <c r="BC10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD10" s="25">
+        <v>8.6800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="11" t="s">
         <v>11</v>
@@ -2307,88 +2744,118 @@
       <c r="M11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="17" cm="1">
+      <c r="Q11" s="16" cm="1">
         <f t="array" ref="Q11:T11">F20:I20</f>
         <v>-1.8070999999999999</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>0.95679999999999998</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <v>0.99990000000000001</v>
       </c>
-      <c r="T11" s="17">
-        <v>1</v>
-      </c>
-      <c r="V11" s="22" t="s">
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
+      <c r="V11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="W11" s="17" cm="1">
+      <c r="W11" s="16" cm="1">
         <f t="array" ref="W11:Z11">F21:I21</f>
         <v>0.20760000000000001</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="16">
         <v>0.42120000000000002</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="16">
         <v>0.8458</v>
       </c>
-      <c r="Z11" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="22" t="s">
+      <c r="Z11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" s="17" cm="1">
+      <c r="AC11" s="16" cm="1">
         <f t="array" ref="AC11:AF11">F22:I22</f>
         <v>1.6415</v>
       </c>
-      <c r="AD11" s="17">
+      <c r="AD11" s="16">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="16">
         <v>0.20300000000000001</v>
       </c>
-      <c r="AF11" s="17">
+      <c r="AF11" s="16">
         <v>0.92490000000000006</v>
       </c>
-      <c r="AH11" s="22" t="s">
+      <c r="AH11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AI11" s="17" cm="1">
+      <c r="AI11" s="16" cm="1">
         <f t="array" ref="AI11:AL11">F23:I23</f>
         <v>2.5251000000000001</v>
       </c>
-      <c r="AJ11" s="17" t="str">
+      <c r="AJ11" s="16" t="str">
         <v>0.007**</v>
       </c>
-      <c r="AK11" s="17" t="str">
+      <c r="AK11" s="16" t="str">
         <v>0.0353*</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="16">
         <v>0.32969999999999999</v>
       </c>
-      <c r="AN11" s="22" t="s">
+      <c r="AN11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AO11" s="17" cm="1">
+      <c r="AO11" s="16" cm="1">
         <f t="array" ref="AO11:AR11">F24:I24</f>
         <v>0.56020000000000003</v>
       </c>
-      <c r="AP11" s="17">
+      <c r="AP11" s="16">
         <v>0.29699999999999999</v>
       </c>
-      <c r="AQ11" s="17">
+      <c r="AQ11" s="16">
         <v>0.70569999999999999</v>
       </c>
-      <c r="AR11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV11" s="25">
+        <v>2.5251000000000001</v>
+      </c>
+      <c r="AW11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY11" s="25">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="AZ11" s="25">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="BA11" s="25">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="BB11" s="25">
+        <v>-2.1168999999999998</v>
+      </c>
+      <c r="BC11" s="25">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="BD11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -2428,88 +2895,118 @@
       <c r="M12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="17" cm="1">
+      <c r="Q12" s="16" cm="1">
         <f t="array" ref="Q12:T12">J20:M20</f>
         <v>-0.43840000000000001</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <v>0.67479999999999996</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <v>0.97009999999999996</v>
       </c>
-      <c r="T12" s="17">
-        <v>1</v>
-      </c>
-      <c r="V12" s="22" t="s">
+      <c r="T12" s="16">
+        <v>1</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="17" cm="1">
+      <c r="W12" s="16" cm="1">
         <f t="array" ref="W12:Z12">J21:M21</f>
         <v>-0.66390000000000005</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="16">
         <v>0.75349999999999995</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="16">
         <v>0.98680000000000001</v>
       </c>
-      <c r="Z12" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="22" t="s">
+      <c r="Z12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AC12" s="17" cm="1">
+      <c r="AC12" s="16" cm="1">
         <f t="array" ref="AC12:AF12">J22:M22</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="16">
         <v>0.41860000000000003</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="16">
         <v>0.83460000000000001</v>
       </c>
-      <c r="AF12" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="22" t="s">
+      <c r="AF12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AI12" s="17" cm="1">
+      <c r="AI12" s="16" cm="1">
         <f t="array" ref="AI12:AL12">J23:M23</f>
         <v>2.0167999999999999</v>
       </c>
-      <c r="AJ12" s="17" t="str">
+      <c r="AJ12" s="16" t="str">
         <v>0.025*</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AK12" s="16">
         <v>0.1017</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="16">
         <v>0.6996</v>
       </c>
-      <c r="AN12" s="22" t="s">
+      <c r="AN12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AO12" s="17" cm="1">
+      <c r="AO12" s="16" cm="1">
         <f t="array" ref="AO12:AR12">J24:M24</f>
         <v>2.1602999999999999</v>
       </c>
-      <c r="AP12" s="17" t="str">
+      <c r="AP12" s="16" t="str">
         <v>0.019*</v>
       </c>
-      <c r="AQ12" s="17">
+      <c r="AQ12" s="16">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="AR12" s="17">
+      <c r="AR12" s="16">
         <v>0.59570000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU12" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV12" s="25">
+        <v>2.0167999999999999</v>
+      </c>
+      <c r="AW12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX12" s="25">
+        <v>0.1017</v>
+      </c>
+      <c r="AY12" s="25">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="AZ12" s="25">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="BA12" s="25">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="BB12" s="25">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="BC12" s="25">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="BD12" s="25">
+        <v>0.71350000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -2549,88 +3046,118 @@
       <c r="M13" s="5">
         <v>1</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="17" cm="1">
+      <c r="Q13" s="16" cm="1">
         <f t="array" ref="Q13:T13">B28:E28</f>
         <v>0.43840000000000001</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>0.32529999999999998</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <v>0.754</v>
       </c>
-      <c r="T13" s="17">
-        <v>1</v>
-      </c>
-      <c r="V13" s="22" t="s">
+      <c r="T13" s="16">
+        <v>1</v>
+      </c>
+      <c r="V13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="W13" s="17" cm="1">
+      <c r="W13" s="16" cm="1">
         <f t="array" ref="W13:Z13">B29:E29</f>
         <v>0.66390000000000005</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="16">
         <v>0.24660000000000001</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="16">
         <v>0.65190000000000003</v>
       </c>
-      <c r="Z13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="22" t="s">
+      <c r="Z13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AC13" s="17" cm="1">
+      <c r="AC13" s="16" cm="1">
         <f t="array" ref="AC13:AF13">B30:E30</f>
         <v>-0.19800000000000001</v>
       </c>
-      <c r="AD13" s="17">
+      <c r="AD13" s="16">
         <v>0.58150000000000002</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="16">
         <v>0.93830000000000002</v>
       </c>
-      <c r="AF13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="22" t="s">
+      <c r="AF13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AI13" s="17" cm="1">
+      <c r="AI13" s="16" cm="1">
         <f t="array" ref="AI13:AL13">B31:E31</f>
         <v>-2.0167999999999999</v>
       </c>
-      <c r="AJ13" s="17">
+      <c r="AJ13" s="16">
         <v>0.97509999999999997</v>
       </c>
-      <c r="AK13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="22" t="s">
+      <c r="AK13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AO13" s="17" cm="1">
+      <c r="AO13" s="16" cm="1">
         <f t="array" ref="AO13:AR13">B32:E32</f>
         <v>-2.1602999999999999</v>
       </c>
-      <c r="AP13" s="17">
+      <c r="AP13" s="16">
         <v>0.98109999999999997</v>
       </c>
-      <c r="AQ13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AQ13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>-2.0167999999999999</v>
+      </c>
+      <c r="AW13" s="25">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="AX13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="25">
+        <v>-0.91210000000000002</v>
+      </c>
+      <c r="AZ13" s="25">
+        <v>0.8175</v>
+      </c>
+      <c r="BA13" s="25">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="BB13" s="25">
+        <v>-0.45639999999999997</v>
+      </c>
+      <c r="BC13" s="25">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="BD13" s="25">
+        <v>0.95860000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2670,88 +3197,118 @@
       <c r="M14" s="5">
         <v>1</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="17" cm="1">
+      <c r="Q14" s="16" cm="1">
         <f t="array" ref="Q14:T14">F28:I28</f>
         <v>0.76780000000000004</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <v>0.22459999999999999</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="16">
         <v>0.59319999999999995</v>
       </c>
-      <c r="T14" s="17">
-        <v>1</v>
-      </c>
-      <c r="V14" s="22" t="s">
+      <c r="T14" s="16">
+        <v>1</v>
+      </c>
+      <c r="V14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W14" s="17" cm="1">
+      <c r="W14" s="16" cm="1">
         <f t="array" ref="W14:Z14">F29:I29</f>
         <v>1.4263999999999999</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="16">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="Y14" s="16">
         <v>0.28249999999999997</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="Z14" s="16">
         <v>0.98129999999999995</v>
       </c>
-      <c r="AB14" s="22" t="s">
+      <c r="AB14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC14" s="17" cm="1">
+      <c r="AC14" s="16" cm="1">
         <f t="array" ref="AC14:AF14">F30:I30</f>
         <v>0.2828</v>
       </c>
-      <c r="AD14" s="17">
+      <c r="AD14" s="16">
         <v>0.39069999999999999</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AE14" s="16">
         <v>0.8075</v>
       </c>
-      <c r="AF14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="22" t="s">
+      <c r="AF14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AI14" s="17" cm="1">
+      <c r="AI14" s="16" cm="1">
         <f t="array" ref="AI14:AL14">F31:I31</f>
         <v>-0.29949999999999999</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="AJ14" s="16">
         <v>0.61260000000000003</v>
       </c>
-      <c r="AK14" s="17">
+      <c r="AK14" s="16">
         <v>0.95209999999999995</v>
       </c>
-      <c r="AL14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="22" t="s">
+      <c r="AL14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AO14" s="17" cm="1">
+      <c r="AO14" s="16" cm="1">
         <f t="array" ref="AO14:AR14">F32:I32</f>
         <v>0.81840000000000002</v>
       </c>
-      <c r="AP14" s="17">
+      <c r="AP14" s="16">
         <v>0.21049999999999999</v>
       </c>
-      <c r="AQ14" s="17">
+      <c r="AQ14" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AR14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>-0.29949999999999999</v>
+      </c>
+      <c r="AW14" s="25">
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="AX14" s="25">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="AY14" s="25">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>0.2162</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="BB14" s="25">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="BC14" s="25">
+        <v>0.24579999999999999</v>
+      </c>
+      <c r="BD14" s="25">
+        <v>0.59650000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -2791,88 +3348,118 @@
       <c r="M15" s="5">
         <v>1</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="24" cm="1">
+      <c r="Q15" s="22" cm="1">
         <f t="array" ref="Q15:T15">J28:M28</f>
         <v>-0.76780000000000004</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="22">
         <v>0.77549999999999997</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="22">
         <v>0.99060000000000004</v>
       </c>
-      <c r="T15" s="24">
-        <v>1</v>
-      </c>
-      <c r="V15" s="23" t="s">
+      <c r="T15" s="22">
+        <v>1</v>
+      </c>
+      <c r="V15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="24" cm="1">
+      <c r="W15" s="22" cm="1">
         <f t="array" ref="W15:Z15">J29:M29</f>
         <v>-1.4263999999999999</v>
       </c>
-      <c r="X15" s="24">
+      <c r="X15" s="22">
         <v>0.91810000000000003</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="Y15" s="22">
         <v>0.99929999999999997</v>
       </c>
-      <c r="Z15" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="23" t="s">
+      <c r="Z15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="24" cm="1">
+      <c r="AC15" s="22" cm="1">
         <f t="array" ref="AC15:AF15">J30:M30</f>
         <v>-0.2828</v>
       </c>
-      <c r="AD15" s="24">
+      <c r="AD15" s="22">
         <v>0.60940000000000005</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="22">
         <v>0.94650000000000001</v>
       </c>
-      <c r="AF15" s="24">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="23" t="s">
+      <c r="AF15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI15" s="24" cm="1">
+      <c r="AI15" s="22" cm="1">
         <f t="array" ref="AI15:AL15">J31:M31</f>
         <v>0.29949999999999999</v>
       </c>
-      <c r="AJ15" s="24">
+      <c r="AJ15" s="22">
         <v>0.38750000000000001</v>
       </c>
-      <c r="AK15" s="24">
+      <c r="AK15" s="22">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AL15" s="24">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="23" t="s">
+      <c r="AL15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AO15" s="24" cm="1">
+      <c r="AO15" s="22" cm="1">
         <f t="array" ref="AO15:AR15">J32:M32</f>
         <v>-0.81840000000000002</v>
       </c>
-      <c r="AP15" s="24">
+      <c r="AP15" s="22">
         <v>0.78959999999999997</v>
       </c>
-      <c r="AQ15" s="24">
+      <c r="AQ15" s="22">
         <v>0.9929</v>
       </c>
-      <c r="AR15" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV15" s="32">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="AW15" s="32">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="AX15" s="32">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AY15" s="32">
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="AZ15" s="32">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="BA15" s="32">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="BB15" s="32">
+        <v>-0.69340000000000002</v>
+      </c>
+      <c r="BC15" s="32">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="BD15" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2913,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2929,29 +3516,47 @@
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="AU18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX18" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>11</v>
@@ -2989,8 +3594,20 @@
       <c r="M19" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU19" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>-0.26579999999999998</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="AX19" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -3030,8 +3647,20 @@
       <c r="M20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU20" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>0.78129999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3071,8 +3700,20 @@
       <c r="M21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>-0.9607</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>0.8216</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3112,8 +3753,20 @@
       <c r="M22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV22" s="25">
+        <v>0.9607</v>
+      </c>
+      <c r="AW22" s="25">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="AX22" s="25">
+        <v>0.47349999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -3153,8 +3806,20 @@
       <c r="M23" s="5">
         <v>0.6996</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>-0.1298</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -3194,8 +3859,20 @@
       <c r="M24" s="6">
         <v>0.59570000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>0.1298</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>0.83160000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3211,31 +3888,55 @@
       <c r="M25" s="3"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>2.1168999999999998</v>
+      </c>
+      <c r="AW25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>8.6800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU26" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>-2.1168999999999998</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="AX26" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
         <v>11</v>
@@ -3275,8 +3976,20 @@
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU27" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="AW27" s="25">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AX27" s="25">
+        <v>0.71350000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -3318,8 +4031,20 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>-0.45639999999999997</v>
+      </c>
+      <c r="AW28" s="25">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="AX28" s="25">
+        <v>0.95860000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -3361,8 +4086,20 @@
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>0.24579999999999999</v>
+      </c>
+      <c r="AX29" s="25">
+        <v>0.59650000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -3404,8 +4141,20 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="AU30" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV30" s="32">
+        <v>-0.69340000000000002</v>
+      </c>
+      <c r="AW30" s="32">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="AX30" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -3448,7 +4197,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -3491,7 +4240,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3508,7 +4257,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3524,8 +4273,24 @@
       <c r="M34" s="14"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ34" s="28"/>
+      <c r="BA34" s="28"/>
+      <c r="BB34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
@@ -3543,70 +4308,124 @@
       <c r="M35" s="5"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU35" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD35" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="18" t="s">
+      <c r="P36" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="18" t="s">
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="18" t="s">
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="18" t="s">
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="18" t="s">
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AO36" s="18"/>
-      <c r="AP36" s="18"/>
-      <c r="AQ36" s="18"/>
-      <c r="AR36" s="18"/>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AU36" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV36" s="25">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="AW36" s="25">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="AX36" s="25">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="AY36" s="25">
+        <v>1.8071999999999999</v>
+      </c>
+      <c r="AZ36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA36" s="25">
+        <v>0.1716</v>
+      </c>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="25"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
         <v>11</v>
@@ -3646,83 +4465,107 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="21" t="s">
+      <c r="Q37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="R37" s="21" t="s">
+      <c r="R37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S37" s="21" t="s">
+      <c r="S37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T37" s="21" t="s">
+      <c r="T37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="V37" s="20" t="s">
+      <c r="V37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W37" s="21" t="s">
+      <c r="W37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X37" s="21" t="s">
+      <c r="X37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y37" s="21" t="s">
+      <c r="Y37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Z37" s="21" t="s">
+      <c r="Z37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AB37" s="20" t="s">
+      <c r="AB37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="21" t="s">
+      <c r="AC37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AD37" s="21" t="s">
+      <c r="AD37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AE37" s="21" t="s">
+      <c r="AE37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF37" s="21" t="s">
+      <c r="AF37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AH37" s="20" t="s">
+      <c r="AH37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AI37" s="21" t="s">
+      <c r="AI37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ37" s="21" t="s">
+      <c r="AJ37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AK37" s="21" t="s">
+      <c r="AK37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AL37" s="21" t="s">
+      <c r="AL37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AN37" s="20" t="s">
+      <c r="AN37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AO37" s="21" t="s">
+      <c r="AO37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AP37" s="21" t="s">
+      <c r="AP37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="21" t="s">
+      <c r="AQ37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AR37" s="21" t="s">
+      <c r="AR37" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV37" s="25">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="AW37" s="25">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="AX37" s="25">
+        <v>0.8891</v>
+      </c>
+      <c r="AY37" s="25">
+        <v>-1.8071999999999999</v>
+      </c>
+      <c r="AZ37" s="25">
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="BA37" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="25"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
@@ -3762,91 +4605,115 @@
       <c r="M38" s="5">
         <v>1</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="16">
         <f>B38</f>
         <v>1.3224</v>
       </c>
-      <c r="R38" s="17">
+      <c r="R38" s="16">
         <f t="shared" ref="R38" si="2">C38</f>
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="16">
         <f t="shared" ref="S38" si="3">D38</f>
         <v>0.36549999999999999</v>
       </c>
-      <c r="T38" s="17">
+      <c r="T38" s="16">
         <f t="shared" ref="T38" si="4">E38</f>
         <v>0.99650000000000005</v>
       </c>
-      <c r="V38" s="22" t="s">
+      <c r="V38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="W38" s="17" cm="1">
+      <c r="W38" s="16" cm="1">
         <f t="array" ref="W38:Z38">B39:E39</f>
         <v>1.7210000000000001</v>
       </c>
-      <c r="X38" s="17" t="str">
+      <c r="X38" s="16" t="str">
         <v>0.0475*</v>
       </c>
-      <c r="Y38" s="17">
+      <c r="Y38" s="16">
         <v>0.1996</v>
       </c>
-      <c r="Z38" s="17">
+      <c r="Z38" s="16">
         <v>0.92210000000000003</v>
       </c>
-      <c r="AB38" s="22" t="s">
+      <c r="AB38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AC38" s="17" cm="1">
+      <c r="AC38" s="16" cm="1">
         <f t="array" ref="AC38:AF38">B40:E40</f>
         <v>0.69369999999999998</v>
       </c>
-      <c r="AD38" s="17">
+      <c r="AD38" s="16">
         <v>0.24540000000000001</v>
       </c>
-      <c r="AE38" s="17">
+      <c r="AE38" s="16">
         <v>0.68779999999999997</v>
       </c>
-      <c r="AF38" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="22" t="s">
+      <c r="AF38" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AI38" s="17" cm="1">
+      <c r="AI38" s="16" cm="1">
         <f t="array" ref="AI38:AL38">B41:E41</f>
         <v>1.1788000000000001</v>
       </c>
-      <c r="AJ38" s="17">
+      <c r="AJ38" s="16">
         <v>0.1249</v>
       </c>
-      <c r="AK38" s="17">
+      <c r="AK38" s="16">
         <v>0.43630000000000002</v>
       </c>
-      <c r="AL38" s="17">
+      <c r="AL38" s="16">
         <v>0.99950000000000006</v>
       </c>
-      <c r="AN38" s="22" t="s">
+      <c r="AN38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AO38" s="17" cm="1">
+      <c r="AO38" s="16" cm="1">
         <f t="array" ref="AO38:AR38">B42:E42</f>
         <v>1.8071999999999999</v>
       </c>
-      <c r="AP38" s="17" t="str">
+      <c r="AP38" s="16" t="str">
         <v>0.0389*</v>
       </c>
-      <c r="AQ38" s="17">
+      <c r="AQ38" s="16">
         <v>0.1716</v>
       </c>
-      <c r="AR38" s="17">
+      <c r="AR38" s="16">
         <v>0.88249999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU38" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV38" s="25">
+        <v>2.5282</v>
+      </c>
+      <c r="AW38" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX38" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY38" s="25">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="AZ38" s="25">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="BA38" s="25">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="25"/>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3886,91 +4753,115 @@
       <c r="M39" s="5">
         <v>1</v>
       </c>
-      <c r="P39" s="22" t="s">
+      <c r="P39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="16">
         <f>F38</f>
         <v>-1.3224</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="16">
         <f t="shared" ref="R39" si="5">G38</f>
         <v>0.90600000000000003</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="16">
         <f t="shared" ref="S39" si="6">H38</f>
         <v>1</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="16">
         <f t="shared" ref="T39" si="7">I38</f>
         <v>1</v>
       </c>
-      <c r="V39" s="22" t="s">
+      <c r="V39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W39" s="17" cm="1">
+      <c r="W39" s="16" cm="1">
         <f t="array" ref="W39:Z39">F39:I39</f>
         <v>-1.7210000000000001</v>
       </c>
-      <c r="X39" s="17">
+      <c r="X39" s="16">
         <v>0.9526</v>
       </c>
-      <c r="Y39" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="22" t="s">
+      <c r="Y39" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AC39" s="17" cm="1">
+      <c r="AC39" s="16" cm="1">
         <f t="array" ref="AC39:AF39">F40:I40</f>
         <v>-0.69369999999999998</v>
       </c>
-      <c r="AD39" s="17">
+      <c r="AD39" s="16">
         <v>0.75470000000000004</v>
       </c>
-      <c r="AE39" s="17">
+      <c r="AE39" s="16">
         <v>0.99580000000000002</v>
       </c>
-      <c r="AF39" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="22" t="s">
+      <c r="AF39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AI39" s="17" cm="1">
+      <c r="AI39" s="16" cm="1">
         <f t="array" ref="AI39:AL39">F41:I41</f>
         <v>-1.1788000000000001</v>
       </c>
-      <c r="AJ39" s="17">
+      <c r="AJ39" s="16">
         <v>0.87519999999999998</v>
       </c>
-      <c r="AK39" s="17">
+      <c r="AK39" s="16">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AL39" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN39" s="22" t="s">
+      <c r="AL39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AO39" s="17" cm="1">
+      <c r="AO39" s="16" cm="1">
         <f t="array" ref="AO39:AR39">F42:I42</f>
         <v>-1.8071999999999999</v>
       </c>
-      <c r="AP39" s="17">
+      <c r="AP39" s="16">
         <v>0.96120000000000005</v>
       </c>
-      <c r="AQ39" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR39" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AQ39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV39" s="25">
+        <v>-2.5282</v>
+      </c>
+      <c r="AW39" s="25">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="AX39" s="25">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="25">
+        <v>-0.68089999999999995</v>
+      </c>
+      <c r="AZ39" s="25">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="BA39" s="25">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="25"/>
+      <c r="BD39" s="25"/>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -4010,88 +4901,112 @@
       <c r="M40" s="5">
         <v>1</v>
       </c>
-      <c r="P40" s="22" t="s">
+      <c r="P40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q40" s="17" cm="1">
+      <c r="Q40" s="16" cm="1">
         <f t="array" ref="Q40:T40">J38:M38</f>
         <v>0.96060000000000001</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R40" s="16">
         <v>0.17069999999999999</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="16">
         <v>0.58309999999999995</v>
       </c>
-      <c r="T40" s="17">
-        <v>1</v>
-      </c>
-      <c r="V40" s="22" t="s">
+      <c r="T40" s="16">
+        <v>1</v>
+      </c>
+      <c r="V40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="W40" s="17" cm="1">
+      <c r="W40" s="16" cm="1">
         <f t="array" ref="W40:Z40">J39:M39</f>
         <v>-0.62290000000000001</v>
       </c>
-      <c r="X40" s="17">
+      <c r="X40" s="16">
         <v>0.73370000000000002</v>
       </c>
-      <c r="Y40" s="17">
+      <c r="Y40" s="16">
         <v>0.99490000000000001</v>
       </c>
-      <c r="Z40" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="22" t="s">
+      <c r="Z40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC40" s="17" cm="1">
+      <c r="AC40" s="16" cm="1">
         <f t="array" ref="AC40:AF40">J40:M40</f>
         <v>-5.91E-2</v>
       </c>
-      <c r="AD40" s="17">
+      <c r="AD40" s="16">
         <v>0.52700000000000002</v>
       </c>
-      <c r="AE40" s="17">
+      <c r="AE40" s="16">
         <v>0.95779999999999998</v>
       </c>
-      <c r="AF40" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="22" t="s">
+      <c r="AF40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AI40" s="17" cm="1">
+      <c r="AI40" s="16" cm="1">
         <f t="array" ref="AI40:AL40">J41:M41</f>
         <v>-6.7100000000000007E-2</v>
       </c>
-      <c r="AJ40" s="17">
+      <c r="AJ40" s="16">
         <v>0.53879999999999995</v>
       </c>
-      <c r="AK40" s="17">
+      <c r="AK40" s="16">
         <v>0.95899999999999996</v>
       </c>
-      <c r="AL40" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="22" t="s">
+      <c r="AL40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AO40" s="17" cm="1">
+      <c r="AO40" s="16" cm="1">
         <f t="array" ref="AO40:AR40">J42:M42</f>
         <v>0.68089999999999995</v>
       </c>
-      <c r="AP40" s="17">
+      <c r="AP40" s="16">
         <v>0.25019999999999998</v>
       </c>
-      <c r="AQ40" s="17">
+      <c r="AQ40" s="16">
         <v>0.73270000000000002</v>
       </c>
-      <c r="AR40" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV40" s="25">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="AW40" s="25">
+        <v>0.192</v>
+      </c>
+      <c r="AX40" s="25">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="AY40" s="25">
+        <v>-1.7859</v>
+      </c>
+      <c r="AZ40" s="25">
+        <v>0.9597</v>
+      </c>
+      <c r="BA40" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="25"/>
+      <c r="BC40" s="25"/>
+      <c r="BD40" s="25"/>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -4131,88 +5046,112 @@
       <c r="M41" s="5">
         <v>1</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="P41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q41" s="17" cm="1">
+      <c r="Q41" s="16" cm="1">
         <f t="array" ref="Q41:T41">B46:E46</f>
         <v>-0.96060000000000001</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="16">
         <v>0.82940000000000003</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="16">
         <v>0.99909999999999999</v>
       </c>
-      <c r="T41" s="17">
-        <v>1</v>
-      </c>
-      <c r="V41" s="22" t="s">
+      <c r="T41" s="16">
+        <v>1</v>
+      </c>
+      <c r="V41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="17" cm="1">
+      <c r="W41" s="16" cm="1">
         <f t="array" ref="W41:Z41">B47:E47</f>
         <v>0.62290000000000001</v>
       </c>
-      <c r="X41" s="17">
+      <c r="X41" s="16">
         <v>0.26640000000000003</v>
       </c>
-      <c r="Y41" s="17">
+      <c r="Y41" s="16">
         <v>0.74729999999999996</v>
       </c>
-      <c r="Z41" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="22" t="s">
+      <c r="Z41" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AC41" s="17" cm="1">
+      <c r="AC41" s="16" cm="1">
         <f t="array" ref="AC41:AF41">B48:E48</f>
         <v>5.91E-2</v>
       </c>
-      <c r="AD41" s="17">
+      <c r="AD41" s="16">
         <v>0.47310000000000002</v>
       </c>
-      <c r="AE41" s="17">
+      <c r="AE41" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="AF41" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="22" t="s">
+      <c r="AF41" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AI41" s="17" cm="1">
+      <c r="AI41" s="16" cm="1">
         <f t="array" ref="AI41:AL41">B49:E49</f>
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="AJ41" s="17">
+      <c r="AJ41" s="16">
         <v>0.46129999999999999</v>
       </c>
-      <c r="AK41" s="17">
+      <c r="AK41" s="16">
         <v>0.93669999999999998</v>
       </c>
-      <c r="AL41" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN41" s="22" t="s">
+      <c r="AL41" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AO41" s="17" cm="1">
+      <c r="AO41" s="16" cm="1">
         <f t="array" ref="AO41:AR41">B50:E50</f>
         <v>-0.68089999999999995</v>
       </c>
-      <c r="AP41" s="17">
+      <c r="AP41" s="16">
         <v>0.74990000000000001</v>
       </c>
-      <c r="AQ41" s="17">
+      <c r="AQ41" s="16">
         <v>0.99680000000000002</v>
       </c>
-      <c r="AR41" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR41" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV41" s="25">
+        <v>-0.87680000000000002</v>
+      </c>
+      <c r="AW41" s="25">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="AX41" s="25">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="AY41" s="25">
+        <v>1.7859</v>
+      </c>
+      <c r="AZ41" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA41" s="25">
+        <v>0.1827</v>
+      </c>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="25"/>
+      <c r="BD41" s="25"/>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -4252,88 +5191,112 @@
       <c r="M42" s="6">
         <v>1</v>
       </c>
-      <c r="P42" s="22" t="s">
+      <c r="P42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q42" s="17" cm="1">
+      <c r="Q42" s="16" cm="1">
         <f t="array" ref="Q42:T42">F46:I46</f>
         <v>-0.19800000000000001</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R42" s="16">
         <v>0.57579999999999998</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="16">
         <v>0.96889999999999998</v>
       </c>
-      <c r="T42" s="17">
-        <v>1</v>
-      </c>
-      <c r="V42" s="22" t="s">
+      <c r="T42" s="16">
+        <v>1</v>
+      </c>
+      <c r="V42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="W42" s="17" cm="1">
+      <c r="W42" s="16" cm="1">
         <f t="array" ref="W42:Z42">F47:I47</f>
         <v>0.192</v>
       </c>
-      <c r="X42" s="17">
+      <c r="X42" s="16">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Y42" s="17">
+      <c r="Y42" s="16">
         <v>0.90239999999999998</v>
       </c>
-      <c r="Z42" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="22" t="s">
+      <c r="Z42" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AC42" s="17" cm="1">
+      <c r="AC42" s="16" cm="1">
         <f t="array" ref="AC42:AF42">F48:I48</f>
         <v>-1.0709</v>
       </c>
-      <c r="AD42" s="17">
+      <c r="AD42" s="16">
         <v>0.85919999999999996</v>
       </c>
-      <c r="AE42" s="17">
+      <c r="AE42" s="16">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AF42" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="22" t="s">
+      <c r="AF42" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AI42" s="17" cm="1">
+      <c r="AI42" s="16" cm="1">
         <f t="array" ref="AI42:AL42">F49:I49</f>
         <v>-0.56489999999999996</v>
       </c>
-      <c r="AJ42" s="17">
+      <c r="AJ42" s="16">
         <v>0.71989999999999998</v>
       </c>
-      <c r="AK42" s="17">
+      <c r="AK42" s="16">
         <v>0.9929</v>
       </c>
-      <c r="AL42" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="22" t="s">
+      <c r="AL42" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AO42" s="17" cm="1">
+      <c r="AO42" s="16" cm="1">
         <f t="array" ref="AO42:AR42">F50:I50</f>
         <v>-1.7859</v>
       </c>
-      <c r="AP42" s="17">
+      <c r="AP42" s="16">
         <v>0.9597</v>
       </c>
-      <c r="AQ42" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AQ42" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV42" s="25">
+        <v>-0.56020000000000003</v>
+      </c>
+      <c r="AW42" s="25">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="AX42" s="25">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="AY42" s="25">
+        <v>2.2153999999999998</v>
+      </c>
+      <c r="AZ42" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA42" s="25">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="BB42" s="25"/>
+      <c r="BC42" s="25"/>
+      <c r="BD42" s="25"/>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4347,189 +5310,237 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="P43" s="22" t="s">
+      <c r="P43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" s="17" cm="1">
+      <c r="Q43" s="16" cm="1">
         <f t="array" ref="Q43:T43">J46:M46</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="R43" s="17">
+      <c r="R43" s="16">
         <v>0.42430000000000001</v>
       </c>
-      <c r="S43" s="17">
+      <c r="S43" s="16">
         <v>0.90010000000000001</v>
       </c>
-      <c r="T43" s="17">
-        <v>1</v>
-      </c>
-      <c r="V43" s="22" t="s">
+      <c r="T43" s="16">
+        <v>1</v>
+      </c>
+      <c r="V43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="W43" s="17" cm="1">
+      <c r="W43" s="16" cm="1">
         <f t="array" ref="W43:Z43">J47:M47</f>
         <v>-0.192</v>
       </c>
-      <c r="X43" s="17">
+      <c r="X43" s="16">
         <v>0.57210000000000005</v>
       </c>
-      <c r="Y43" s="17">
+      <c r="Y43" s="16">
         <v>0.97170000000000001</v>
       </c>
-      <c r="Z43" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="22" t="s">
+      <c r="Z43" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AC43" s="17" cm="1">
+      <c r="AC43" s="16" cm="1">
         <f t="array" ref="AC43:AF43">J48:M48</f>
         <v>1.0709</v>
       </c>
-      <c r="AD43" s="17">
+      <c r="AD43" s="16">
         <v>0.1409</v>
       </c>
-      <c r="AE43" s="17">
+      <c r="AE43" s="16">
         <v>0.50790000000000002</v>
       </c>
-      <c r="AF43" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="22" t="s">
+      <c r="AF43" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AI43" s="17" cm="1">
+      <c r="AI43" s="16" cm="1">
         <f t="array" ref="AI43:AL43">J49:M49</f>
         <v>0.56489999999999996</v>
       </c>
-      <c r="AJ43" s="17">
+      <c r="AJ43" s="16">
         <v>0.2802</v>
       </c>
-      <c r="AK43" s="17">
+      <c r="AK43" s="16">
         <v>0.76459999999999995</v>
       </c>
-      <c r="AL43" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN43" s="22" t="s">
+      <c r="AL43" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AO43" s="17" cm="1">
+      <c r="AO43" s="16" cm="1">
         <f t="array" ref="AO43:AR43">J50:M50</f>
         <v>1.7859</v>
       </c>
-      <c r="AP43" s="17" t="str">
+      <c r="AP43" s="16" t="str">
         <v>0.0404*</v>
       </c>
-      <c r="AQ43" s="17">
+      <c r="AQ43" s="16">
         <v>0.1827</v>
       </c>
-      <c r="AR43" s="17">
+      <c r="AR43" s="16">
         <v>0.89480000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU43" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV43" s="25">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="AW43" s="25">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AX43" s="25">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="AY43" s="25">
+        <v>-2.2153999999999998</v>
+      </c>
+      <c r="AZ43" s="25">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="BA43" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="25"/>
+      <c r="BC43" s="25"/>
+      <c r="BD43" s="25"/>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16" t="s">
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="P44" s="22" t="s">
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="P44" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="17" cm="1">
+      <c r="Q44" s="16" cm="1">
         <f t="array" ref="Q44:T44">B54:E54</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R44" s="16">
         <v>0.13569999999999999</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="16">
         <v>0.50280000000000002</v>
       </c>
-      <c r="T44" s="17">
-        <v>1</v>
-      </c>
-      <c r="V44" s="22" t="s">
+      <c r="T44" s="16">
+        <v>1</v>
+      </c>
+      <c r="V44" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W44" s="17" cm="1">
+      <c r="W44" s="16" cm="1">
         <f t="array" ref="W44:Z44">B55:E55</f>
         <v>1.6774</v>
       </c>
-      <c r="X44" s="17">
+      <c r="X44" s="16">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="Y44" s="17">
+      <c r="Y44" s="16">
         <v>0.22</v>
       </c>
-      <c r="Z44" s="17">
+      <c r="Z44" s="16">
         <v>0.94040000000000001</v>
       </c>
-      <c r="AB44" s="22" t="s">
+      <c r="AB44" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AC44" s="17" cm="1">
+      <c r="AC44" s="16" cm="1">
         <f t="array" ref="AC44:AF44">B56:E56</f>
         <v>0.25729999999999997</v>
       </c>
-      <c r="AD44" s="17">
+      <c r="AD44" s="16">
         <v>0.40200000000000002</v>
       </c>
-      <c r="AE44" s="17">
+      <c r="AE44" s="16">
         <v>0.874</v>
       </c>
-      <c r="AF44" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="22" t="s">
+      <c r="AF44" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AI44" s="17" cm="1">
+      <c r="AI44" s="16" cm="1">
         <f t="array" ref="AI44:AL44">B57:E57</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="AJ44" s="17">
+      <c r="AJ44" s="16">
         <v>0.34370000000000001</v>
       </c>
-      <c r="AK44" s="17">
+      <c r="AK44" s="16">
         <v>0.83069999999999999</v>
       </c>
-      <c r="AL44" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN44" s="22" t="s">
+      <c r="AL44" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AO44" s="17" cm="1">
+      <c r="AO44" s="16" cm="1">
         <f t="array" ref="AO44:AR44">B58:E58</f>
         <v>2.2153999999999998</v>
       </c>
-      <c r="AP44" s="17" t="str">
+      <c r="AP44" s="16" t="str">
         <v>0.0153*</v>
       </c>
-      <c r="AQ44" s="17">
+      <c r="AQ44" s="16">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="AR44" s="17">
+      <c r="AR44" s="16">
         <v>0.6028</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU44" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV44" s="25">
+        <v>2.1602999999999999</v>
+      </c>
+      <c r="AW44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX44" s="25">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="AY44" s="25">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="AZ44" s="25">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="BA44" s="25">
+        <v>0.3075</v>
+      </c>
+      <c r="BB44" s="25"/>
+      <c r="BC44" s="25"/>
+      <c r="BD44" s="25"/>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="11" t="s">
         <v>11</v>
@@ -4569,88 +5580,112 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="22" t="s">
+      <c r="P45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="17" cm="1">
+      <c r="Q45" s="16" cm="1">
         <f t="array" ref="Q45:T45">F54:I54</f>
         <v>-1.0840000000000001</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="16">
         <v>0.86439999999999995</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="16">
         <v>0.99960000000000004</v>
       </c>
-      <c r="T45" s="17">
-        <v>1</v>
-      </c>
-      <c r="V45" s="22" t="s">
+      <c r="T45" s="16">
+        <v>1</v>
+      </c>
+      <c r="V45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="17" cm="1">
+      <c r="W45" s="16" cm="1">
         <f t="array" ref="W45:Z45">F55:I55</f>
         <v>-1.6774</v>
       </c>
-      <c r="X45" s="17">
+      <c r="X45" s="16">
         <v>0.94720000000000004</v>
       </c>
-      <c r="Y45" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="22" t="s">
+      <c r="Y45" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC45" s="17" cm="1">
+      <c r="AC45" s="16" cm="1">
         <f t="array" ref="AC45:AF45">F56:I56</f>
         <v>-0.25729999999999997</v>
       </c>
-      <c r="AD45" s="17">
+      <c r="AD45" s="16">
         <v>0.59809999999999997</v>
       </c>
-      <c r="AE45" s="17">
+      <c r="AE45" s="16">
         <v>0.97389999999999999</v>
       </c>
-      <c r="AF45" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="22" t="s">
+      <c r="AF45" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AI45" s="17" cm="1">
+      <c r="AI45" s="16" cm="1">
         <f t="array" ref="AI45:AL45">F57:I57</f>
         <v>-0.39200000000000002</v>
       </c>
-      <c r="AJ45" s="17">
+      <c r="AJ45" s="16">
         <v>0.65639999999999998</v>
       </c>
-      <c r="AK45" s="17">
+      <c r="AK45" s="16">
         <v>0.98360000000000003</v>
       </c>
-      <c r="AL45" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN45" s="22" t="s">
+      <c r="AL45" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AO45" s="17" cm="1">
+      <c r="AO45" s="16" cm="1">
         <f t="array" ref="AO45:AR45">F58:I58</f>
         <v>-2.2153999999999998</v>
       </c>
-      <c r="AP45" s="17">
+      <c r="AP45" s="16">
         <v>0.98480000000000001</v>
       </c>
-      <c r="AQ45" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR45" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AQ45" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV45" s="25">
+        <v>-2.1602999999999999</v>
+      </c>
+      <c r="AW45" s="25">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="AX45" s="25">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="25">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="AZ45" s="25">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="BA45" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="25"/>
+      <c r="BC45" s="25"/>
+      <c r="BD45" s="25"/>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>0</v>
       </c>
@@ -4690,88 +5725,112 @@
       <c r="M46" s="5">
         <v>1</v>
       </c>
-      <c r="P46" s="22" t="s">
+      <c r="P46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q46" s="17" cm="1">
+      <c r="Q46" s="16" cm="1">
         <f t="array" ref="Q46:T46">J54:M54</f>
         <v>0.14199999999999999</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R46" s="16">
         <v>0.44529999999999997</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="16">
         <v>0.92130000000000001</v>
       </c>
-      <c r="T46" s="17">
-        <v>1</v>
-      </c>
-      <c r="V46" s="22" t="s">
+      <c r="T46" s="16">
+        <v>1</v>
+      </c>
+      <c r="V46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="W46" s="17" cm="1">
+      <c r="W46" s="16" cm="1">
         <f t="array" ref="W46:Z46">J55:M55</f>
         <v>-0.96779999999999999</v>
       </c>
-      <c r="X46" s="17">
+      <c r="X46" s="16">
         <v>0.83809999999999996</v>
       </c>
-      <c r="Y46" s="17">
+      <c r="Y46" s="16">
         <v>0.99939999999999996</v>
       </c>
-      <c r="Z46" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="22" t="s">
+      <c r="Z46" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AC46" s="17" cm="1">
+      <c r="AC46" s="16" cm="1">
         <f t="array" ref="AC46:AF46">J56:M56</f>
         <v>-0.1943</v>
       </c>
-      <c r="AD46" s="17">
+      <c r="AD46" s="16">
         <v>0.57650000000000001</v>
       </c>
-      <c r="AE46" s="17">
+      <c r="AE46" s="16">
         <v>0.97570000000000001</v>
       </c>
-      <c r="AF46" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="22" t="s">
+      <c r="AF46" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AI46" s="17" cm="1">
+      <c r="AI46" s="16" cm="1">
         <f t="array" ref="AI46:AL46">J57:M57</f>
         <v>0.91210000000000002</v>
       </c>
-      <c r="AJ46" s="17">
+      <c r="AJ46" s="16">
         <v>0.18260000000000001</v>
       </c>
-      <c r="AK46" s="17">
+      <c r="AK46" s="16">
         <v>0.60209999999999997</v>
       </c>
-      <c r="AL46" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN46" s="22" t="s">
+      <c r="AL46" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AO46" s="17" cm="1">
+      <c r="AO46" s="16" cm="1">
         <f t="array" ref="AO46:AR46">J58:M58</f>
         <v>1.4630000000000001</v>
       </c>
-      <c r="AP46" s="17">
+      <c r="AP46" s="16">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="AQ46" s="17">
+      <c r="AQ46" s="16">
         <v>0.3075</v>
       </c>
-      <c r="AR46" s="17">
+      <c r="AR46" s="16">
         <v>0.98709999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU46" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV46" s="25">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="AW46" s="25">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AX46" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AY46" s="25">
+        <v>-0.40810000000000002</v>
+      </c>
+      <c r="AZ46" s="25">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="BA46" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="BB46" s="25"/>
+      <c r="BC46" s="25"/>
+      <c r="BD46" s="25"/>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4811,88 +5870,112 @@
       <c r="M47" s="5">
         <v>1</v>
       </c>
-      <c r="P47" s="22" t="s">
+      <c r="P47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q47" s="17" cm="1">
+      <c r="Q47" s="16" cm="1">
         <f t="array" ref="Q47:T47">B62:E62</f>
         <v>-0.14199999999999999</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="16">
         <v>0.55479999999999996</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="16">
         <v>0.96750000000000003</v>
       </c>
-      <c r="T47" s="17">
-        <v>1</v>
-      </c>
-      <c r="V47" s="22" t="s">
+      <c r="T47" s="16">
+        <v>1</v>
+      </c>
+      <c r="V47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="W47" s="17" cm="1">
+      <c r="W47" s="16" cm="1">
         <f t="array" ref="W47:Z47">B63:E63</f>
         <v>0.96779999999999999</v>
       </c>
-      <c r="X47" s="17">
+      <c r="X47" s="16">
         <v>0.16200000000000001</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="Y47" s="16">
         <v>0.56159999999999999</v>
       </c>
-      <c r="Z47" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="22" t="s">
+      <c r="Z47" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AC47" s="17" cm="1">
+      <c r="AC47" s="16" cm="1">
         <f t="array" ref="AC47:AF47">B64:E64</f>
         <v>0.1943</v>
       </c>
-      <c r="AD47" s="17">
+      <c r="AD47" s="16">
         <v>0.42359999999999998</v>
       </c>
-      <c r="AE47" s="17">
+      <c r="AE47" s="16">
         <v>0.90590000000000004</v>
       </c>
-      <c r="AF47" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="22" t="s">
+      <c r="AF47" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AI47" s="17" cm="1">
+      <c r="AI47" s="16" cm="1">
         <f t="array" ref="AI47:AL47">B65:E65</f>
         <v>-0.91210000000000002</v>
       </c>
-      <c r="AJ47" s="17">
+      <c r="AJ47" s="16">
         <v>0.8175</v>
       </c>
-      <c r="AK47" s="17">
+      <c r="AK47" s="16">
         <v>0.99929999999999997</v>
       </c>
-      <c r="AL47" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN47" s="22" t="s">
+      <c r="AL47" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AO47" s="17" cm="1">
+      <c r="AO47" s="16" cm="1">
         <f t="array" ref="AO47:AR47">B66:E66</f>
         <v>-1.4630000000000001</v>
       </c>
-      <c r="AP47" s="17">
+      <c r="AP47" s="16">
         <v>0.92430000000000001</v>
       </c>
-      <c r="AQ47" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR47" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AQ47" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV47" s="32">
+        <v>-0.81840000000000002</v>
+      </c>
+      <c r="AW47" s="32">
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="AX47" s="32">
+        <v>0.9929</v>
+      </c>
+      <c r="AY47" s="32">
+        <v>0.40810000000000002</v>
+      </c>
+      <c r="AZ47" s="32">
+        <v>0.3422</v>
+      </c>
+      <c r="BA47" s="32">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="BB47" s="32"/>
+      <c r="BC47" s="32"/>
+      <c r="BD47" s="32"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>2</v>
       </c>
@@ -4932,88 +6015,88 @@
       <c r="M48" s="5">
         <v>1</v>
       </c>
-      <c r="P48" s="22" t="s">
+      <c r="P48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="17" cm="1">
+      <c r="Q48" s="16" cm="1">
         <f t="array" ref="Q48:T48">F62:I62</f>
         <v>-1.6758</v>
       </c>
-      <c r="R48" s="17">
+      <c r="R48" s="16">
         <v>0.94850000000000001</v>
       </c>
-      <c r="S48" s="17">
-        <v>1</v>
-      </c>
-      <c r="T48" s="17">
-        <v>1</v>
-      </c>
-      <c r="V48" s="22" t="s">
+      <c r="S48" s="16">
+        <v>1</v>
+      </c>
+      <c r="T48" s="16">
+        <v>1</v>
+      </c>
+      <c r="V48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W48" s="17" cm="1">
+      <c r="W48" s="16" cm="1">
         <f t="array" ref="W48:Z48">F63:I63</f>
         <v>0.44550000000000001</v>
       </c>
-      <c r="X48" s="17">
+      <c r="X48" s="16">
         <v>0.33139999999999997</v>
       </c>
-      <c r="Y48" s="17">
+      <c r="Y48" s="16">
         <v>0.83230000000000004</v>
       </c>
-      <c r="Z48" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="22" t="s">
+      <c r="Z48" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC48" s="17" cm="1">
+      <c r="AC48" s="16" cm="1">
         <f t="array" ref="AC48:AF48">F64:I64</f>
         <v>-0.36599999999999999</v>
       </c>
-      <c r="AD48" s="17">
+      <c r="AD48" s="16">
         <v>0.6462</v>
       </c>
-      <c r="AE48" s="17">
+      <c r="AE48" s="16">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AF48" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="22" t="s">
+      <c r="AF48" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AI48" s="17" cm="1">
+      <c r="AI48" s="16" cm="1">
         <f t="array" ref="AI48:AL48">F65:I65</f>
         <v>0.78600000000000003</v>
       </c>
-      <c r="AJ48" s="17">
+      <c r="AJ48" s="16">
         <v>0.2162</v>
       </c>
-      <c r="AK48" s="17">
+      <c r="AK48" s="16">
         <v>0.67430000000000001</v>
       </c>
-      <c r="AL48" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN48" s="22" t="s">
+      <c r="AL48" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AO48" s="17" cm="1">
+      <c r="AO48" s="16" cm="1">
         <f t="array" ref="AO48:AR48">F66:I66</f>
         <v>-0.40810000000000002</v>
       </c>
-      <c r="AP48" s="17">
+      <c r="AP48" s="16">
         <v>0.65790000000000004</v>
       </c>
-      <c r="AQ48" s="17">
+      <c r="AQ48" s="16">
         <v>0.99099999999999999</v>
       </c>
-      <c r="AR48" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5053,88 +6136,94 @@
       <c r="M49" s="5">
         <v>1</v>
       </c>
-      <c r="P49" s="23" t="s">
+      <c r="P49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="24" cm="1">
+      <c r="Q49" s="22" cm="1">
         <f t="array" ref="Q49:T49">J62:M62</f>
         <v>1.6758</v>
       </c>
-      <c r="R49" s="24">
+      <c r="R49" s="22">
         <v>5.16E-2</v>
       </c>
-      <c r="S49" s="24">
+      <c r="S49" s="22">
         <v>0.22090000000000001</v>
       </c>
-      <c r="T49" s="24">
+      <c r="T49" s="22">
         <v>0.94079999999999997</v>
       </c>
-      <c r="V49" s="23" t="s">
+      <c r="V49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="24" cm="1">
+      <c r="W49" s="22" cm="1">
         <f t="array" ref="W49:Z49">J63:M63</f>
         <v>-0.44550000000000001</v>
       </c>
-      <c r="X49" s="24">
+      <c r="X49" s="22">
         <v>0.66869999999999996</v>
       </c>
-      <c r="Y49" s="24">
+      <c r="Y49" s="22">
         <v>0.99060000000000004</v>
       </c>
-      <c r="Z49" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="23" t="s">
+      <c r="Z49" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC49" s="24" cm="1">
+      <c r="AC49" s="22" cm="1">
         <f t="array" ref="AC49:AF49">J64:M64</f>
         <v>0.36599999999999999</v>
       </c>
-      <c r="AD49" s="24">
+      <c r="AD49" s="22">
         <v>0.35389999999999999</v>
       </c>
-      <c r="AE49" s="24">
+      <c r="AE49" s="22">
         <v>0.85340000000000005</v>
       </c>
-      <c r="AF49" s="24">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="23" t="s">
+      <c r="AF49" s="22">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI49" s="24" cm="1">
+      <c r="AI49" s="22" cm="1">
         <f t="array" ref="AI49:AL49">J65:M65</f>
         <v>-0.78600000000000003</v>
       </c>
-      <c r="AJ49" s="24">
+      <c r="AJ49" s="22">
         <v>0.78390000000000004</v>
       </c>
-      <c r="AK49" s="24">
+      <c r="AK49" s="22">
         <v>0.99839999999999995</v>
       </c>
-      <c r="AL49" s="24">
-        <v>1</v>
-      </c>
-      <c r="AN49" s="23" t="s">
+      <c r="AL49" s="22">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AO49" s="24" cm="1">
+      <c r="AO49" s="22" cm="1">
         <f t="array" ref="AO49:AR49">J66:M66</f>
         <v>0.40810000000000002</v>
       </c>
-      <c r="AP49" s="24">
+      <c r="AP49" s="22">
         <v>0.3422</v>
       </c>
-      <c r="AQ49" s="24">
+      <c r="AQ49" s="22">
         <v>0.83909999999999996</v>
       </c>
-      <c r="AR49" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR49" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW49" s="28"/>
+      <c r="AX49" s="28"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -5174,8 +6263,20 @@
       <c r="M50" s="6">
         <v>0.89480000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU50" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV50" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW50" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX50" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5189,29 +6290,53 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU51" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV51" s="25">
+        <v>-0.11269999999999999</v>
+      </c>
+      <c r="AW51" s="25">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="AX51" s="25">
+        <v>0.88859999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16" t="s">
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="AU52" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV52" s="25">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="AW52" s="25">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AX52" s="25">
+        <v>0.83379999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7" t="s">
         <v>11</v>
@@ -5251,8 +6376,20 @@
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU53" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV53" s="25">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="AW53" s="25">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="AX53" s="25">
+        <v>0.71079999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>0</v>
       </c>
@@ -5292,8 +6429,20 @@
       <c r="M54" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU54" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV54" s="25">
+        <v>-0.43580000000000002</v>
+      </c>
+      <c r="AW54" s="25">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="AX54" s="25">
+        <v>0.9587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>1</v>
       </c>
@@ -5333,8 +6482,20 @@
       <c r="M55" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU55" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV55" s="25">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="AW55" s="25">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="AX55" s="25">
+        <v>0.47960000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>2</v>
       </c>
@@ -5374,8 +6535,20 @@
       <c r="M56" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU56" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV56" s="25">
+        <v>-0.92959999999999998</v>
+      </c>
+      <c r="AW56" s="25">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="AX56" s="25">
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
@@ -5415,8 +6588,20 @@
       <c r="M57" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU57" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV57" s="25">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+      <c r="AW57" s="25">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="AX57" s="25">
+        <v>0.88560000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -5456,8 +6641,20 @@
       <c r="M58" s="6">
         <v>0.98709999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU58" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV58" s="25">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="AW58" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="AX58" s="25">
+        <v>0.85560000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5471,29 +6668,53 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU59" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV59" s="25">
+        <v>-2.2799</v>
+      </c>
+      <c r="AW59" s="25">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="AX59" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16" t="s">
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="AU60" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV60" s="25">
+        <v>2.2799</v>
+      </c>
+      <c r="AW60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX60" s="25">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
         <v>11</v>
@@ -5533,8 +6754,20 @@
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU61" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV61" s="25">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="AW61" s="25">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="AX61" s="25">
+        <v>0.86719999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -5576,8 +6809,20 @@
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AU62" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV62" s="32">
+        <v>-1.7100000000000001E-2</v>
+      </c>
+      <c r="AW62" s="32">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="AX62" s="32">
+        <v>0.87050000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -5620,7 +6865,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -5804,65 +7049,65 @@
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16" t="s">
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16" t="s">
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-      <c r="P70" s="18" t="s">
+      <c r="P70" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="18" t="s">
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="18" t="s">
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AC70" s="18"/>
-      <c r="AD70" s="18"/>
-      <c r="AE70" s="18"/>
-      <c r="AF70" s="18"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="18" t="s">
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="23"/>
+      <c r="AE70" s="23"/>
+      <c r="AF70" s="23"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="18"/>
-      <c r="AM70" s="19"/>
-      <c r="AN70" s="18" t="s">
+      <c r="AI70" s="23"/>
+      <c r="AJ70" s="23"/>
+      <c r="AK70" s="23"/>
+      <c r="AL70" s="23"/>
+      <c r="AM70" s="17"/>
+      <c r="AN70" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AO70" s="18"/>
-      <c r="AP70" s="18"/>
-      <c r="AQ70" s="18"/>
-      <c r="AR70" s="18"/>
+      <c r="AO70" s="23"/>
+      <c r="AP70" s="23"/>
+      <c r="AQ70" s="23"/>
+      <c r="AR70" s="23"/>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
@@ -5904,79 +7149,79 @@
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="20" t="s">
+      <c r="P71" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q71" s="21" t="s">
+      <c r="Q71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="R71" s="21" t="s">
+      <c r="R71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S71" s="21" t="s">
+      <c r="S71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T71" s="21" t="s">
+      <c r="T71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="V71" s="20" t="s">
+      <c r="V71" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W71" s="21" t="s">
+      <c r="W71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X71" s="21" t="s">
+      <c r="X71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y71" s="21" t="s">
+      <c r="Y71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Z71" s="21" t="s">
+      <c r="Z71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AB71" s="20" t="s">
+      <c r="AB71" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AC71" s="21" t="s">
+      <c r="AC71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AD71" s="21" t="s">
+      <c r="AD71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AE71" s="21" t="s">
+      <c r="AE71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF71" s="21" t="s">
+      <c r="AF71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AH71" s="20" t="s">
+      <c r="AH71" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AI71" s="21" t="s">
+      <c r="AI71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ71" s="21" t="s">
+      <c r="AJ71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AK71" s="21" t="s">
+      <c r="AK71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AL71" s="21" t="s">
+      <c r="AL71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AN71" s="20" t="s">
+      <c r="AN71" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AO71" s="21" t="s">
+      <c r="AO71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AP71" s="21" t="s">
+      <c r="AP71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AQ71" s="21" t="s">
+      <c r="AQ71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AR71" s="21" t="s">
+      <c r="AR71" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6020,87 +7265,87 @@
       <c r="M72" s="5">
         <v>1</v>
       </c>
-      <c r="P72" s="22" t="s">
+      <c r="P72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q72" s="17">
+      <c r="Q72" s="16">
         <f>B72</f>
         <v>1.8298000000000001</v>
       </c>
-      <c r="R72" s="17">
+      <c r="R72" s="16">
         <f t="shared" ref="R72" si="8">C72</f>
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="S72" s="17">
+      <c r="S72" s="16">
         <f t="shared" ref="S72" si="9">D72</f>
         <v>0.14449999999999999</v>
       </c>
-      <c r="T72" s="17">
+      <c r="T72" s="16">
         <f t="shared" ref="T72" si="10">E72</f>
         <v>0.8125</v>
       </c>
-      <c r="V72" s="22" t="s">
+      <c r="V72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="W72" s="17" cm="1">
+      <c r="W72" s="16" cm="1">
         <f t="array" ref="W72:Z72">B73:E73</f>
         <v>1.1378999999999999</v>
       </c>
-      <c r="X72" s="17">
+      <c r="X72" s="16">
         <v>0.13400000000000001</v>
       </c>
-      <c r="Y72" s="17">
+      <c r="Y72" s="16">
         <v>0.38140000000000002</v>
       </c>
-      <c r="Z72" s="17">
+      <c r="Z72" s="16">
         <v>0.99770000000000003</v>
       </c>
-      <c r="AB72" s="22" t="s">
+      <c r="AB72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AC72" s="17" cm="1">
+      <c r="AC72" s="16" cm="1">
         <f t="array" ref="AC72:AF72">B74:E74</f>
         <v>0.74370000000000003</v>
       </c>
-      <c r="AD72" s="17">
+      <c r="AD72" s="16">
         <v>0.2276</v>
       </c>
-      <c r="AE72" s="17">
+      <c r="AE72" s="16">
         <v>0.57540000000000002</v>
       </c>
-      <c r="AF72" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="22" t="s">
+      <c r="AF72" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AI72" s="17" cm="1">
+      <c r="AI72" s="16" cm="1">
         <f t="array" ref="AI72:AL72">B75:E75</f>
         <v>-0.26579999999999998</v>
       </c>
-      <c r="AJ72" s="17">
+      <c r="AJ72" s="16">
         <v>0.59760000000000002</v>
       </c>
-      <c r="AK72" s="17">
+      <c r="AK72" s="16">
         <v>0.92200000000000004</v>
       </c>
-      <c r="AL72" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN72" s="22" t="s">
+      <c r="AL72" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AO72" s="17" cm="1">
+      <c r="AO72" s="16" cm="1">
         <f t="array" ref="AO72:AR72">B76:E76</f>
         <v>-0.11269999999999999</v>
       </c>
-      <c r="AP72" s="17">
+      <c r="AP72" s="16">
         <v>0.54310000000000003</v>
       </c>
-      <c r="AQ72" s="17">
+      <c r="AQ72" s="16">
         <v>0.88859999999999995</v>
       </c>
-      <c r="AR72" s="17">
+      <c r="AR72" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6144,87 +7389,87 @@
       <c r="M73" s="5">
         <v>1</v>
       </c>
-      <c r="P73" s="22" t="s">
+      <c r="P73" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="Q73" s="16">
         <f>F72</f>
         <v>-1.8298000000000001</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="16">
         <f t="shared" ref="R73" si="11">G72</f>
         <v>0.96340000000000003</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="16">
         <f t="shared" ref="S73" si="12">H72</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="T73" s="17">
+      <c r="T73" s="16">
         <f t="shared" ref="T73" si="13">I72</f>
         <v>1</v>
       </c>
-      <c r="V73" s="22" t="s">
+      <c r="V73" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W73" s="17" cm="1">
+      <c r="W73" s="16" cm="1">
         <f t="array" ref="W73:Z73">F73:I73</f>
         <v>-1.1378999999999999</v>
       </c>
-      <c r="X73" s="17">
+      <c r="X73" s="16">
         <v>0.86609999999999998</v>
       </c>
-      <c r="Y73" s="17">
+      <c r="Y73" s="16">
         <v>0.99560000000000004</v>
       </c>
-      <c r="Z73" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="22" t="s">
+      <c r="Z73" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AC73" s="17" cm="1">
+      <c r="AC73" s="16" cm="1">
         <f t="array" ref="AC73:AF73">F74:I74</f>
         <v>-0.74370000000000003</v>
       </c>
-      <c r="AD73" s="17">
+      <c r="AD73" s="16">
         <v>0.77249999999999996</v>
       </c>
-      <c r="AE73" s="17">
+      <c r="AE73" s="16">
         <v>0.98040000000000005</v>
       </c>
-      <c r="AF73" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH73" s="22" t="s">
+      <c r="AF73" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AI73" s="17" cm="1">
+      <c r="AI73" s="16" cm="1">
         <f t="array" ref="AI73:AL73">F75:I75</f>
         <v>0.26579999999999998</v>
       </c>
-      <c r="AJ73" s="17">
+      <c r="AJ73" s="16">
         <v>0.40250000000000002</v>
       </c>
-      <c r="AK73" s="17">
+      <c r="AK73" s="16">
         <v>0.78129999999999999</v>
       </c>
-      <c r="AL73" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN73" s="22" t="s">
+      <c r="AL73" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AO73" s="17" cm="1">
+      <c r="AO73" s="16" cm="1">
         <f t="array" ref="AO73:AR73">F76:I76</f>
         <v>0.11269999999999999</v>
       </c>
-      <c r="AP73" s="17">
+      <c r="AP73" s="16">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AQ73" s="17">
+      <c r="AQ73" s="16">
         <v>0.83379999999999999</v>
       </c>
-      <c r="AR73" s="17">
+      <c r="AR73" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6268,84 +7513,84 @@
       <c r="M74" s="5">
         <v>0.995</v>
       </c>
-      <c r="P74" s="22" t="s">
+      <c r="P74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q74" s="17" cm="1">
+      <c r="Q74" s="16" cm="1">
         <f t="array" ref="Q74:T74">J72:M72</f>
         <v>-0.72840000000000005</v>
       </c>
-      <c r="R74" s="17">
+      <c r="R74" s="16">
         <v>0.76570000000000005</v>
       </c>
-      <c r="S74" s="17">
+      <c r="S74" s="16">
         <v>0.98229999999999995</v>
       </c>
-      <c r="T74" s="17">
-        <v>1</v>
-      </c>
-      <c r="V74" s="22" t="s">
+      <c r="T74" s="16">
+        <v>1</v>
+      </c>
+      <c r="V74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="W74" s="17" cm="1">
+      <c r="W74" s="16" cm="1">
         <f t="array" ref="W74:Z74">J73:M73</f>
         <v>-0.87129999999999996</v>
       </c>
-      <c r="X74" s="17">
+      <c r="X74" s="16">
         <v>0.80569999999999997</v>
       </c>
-      <c r="Y74" s="17">
+      <c r="Y74" s="16">
         <v>0.9889</v>
       </c>
-      <c r="Z74" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB74" s="22" t="s">
+      <c r="Z74" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC74" s="17" cm="1">
+      <c r="AC74" s="16" cm="1">
         <f t="array" ref="AC74:AF74">J74:M74</f>
         <v>1.2115</v>
       </c>
-      <c r="AD74" s="17">
+      <c r="AD74" s="16">
         <v>0.1138</v>
       </c>
-      <c r="AE74" s="17">
+      <c r="AE74" s="16">
         <v>0.34710000000000002</v>
       </c>
-      <c r="AF74" s="17">
+      <c r="AF74" s="16">
         <v>0.995</v>
       </c>
-      <c r="AH74" s="22" t="s">
+      <c r="AH74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AI74" s="17" cm="1">
+      <c r="AI74" s="16" cm="1">
         <f t="array" ref="AI74:AL74">J75:M75</f>
         <v>-0.9607</v>
       </c>
-      <c r="AJ74" s="17">
+      <c r="AJ74" s="16">
         <v>0.8216</v>
       </c>
-      <c r="AK74" s="17">
+      <c r="AK74" s="16">
         <v>0.99239999999999995</v>
       </c>
-      <c r="AL74" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN74" s="22" t="s">
+      <c r="AL74" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AO74" s="17" cm="1">
+      <c r="AO74" s="16" cm="1">
         <f t="array" ref="AO74:AR74">J76:M76</f>
         <v>0.43580000000000002</v>
       </c>
-      <c r="AP74" s="17">
+      <c r="AP74" s="16">
         <v>0.33189999999999997</v>
       </c>
-      <c r="AQ74" s="17">
+      <c r="AQ74" s="16">
         <v>0.71079999999999999</v>
       </c>
-      <c r="AR74" s="17">
+      <c r="AR74" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6389,84 +7634,84 @@
       <c r="M75" s="5">
         <v>1</v>
       </c>
-      <c r="P75" s="22" t="s">
+      <c r="P75" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q75" s="17" cm="1">
+      <c r="Q75" s="16" cm="1">
         <f t="array" ref="Q75:T75">B80:E80</f>
         <v>0.72840000000000005</v>
       </c>
-      <c r="R75" s="17">
+      <c r="R75" s="16">
         <v>0.2344</v>
       </c>
-      <c r="S75" s="17">
+      <c r="S75" s="16">
         <v>0.58520000000000005</v>
       </c>
-      <c r="T75" s="17">
-        <v>1</v>
-      </c>
-      <c r="V75" s="22" t="s">
+      <c r="T75" s="16">
+        <v>1</v>
+      </c>
+      <c r="V75" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W75" s="17" cm="1">
+      <c r="W75" s="16" cm="1">
         <f t="array" ref="W75:Z75">B81:E81</f>
         <v>0.87129999999999996</v>
       </c>
-      <c r="X75" s="17">
+      <c r="X75" s="16">
         <v>0.19439999999999999</v>
       </c>
-      <c r="Y75" s="17">
+      <c r="Y75" s="16">
         <v>0.51529999999999998</v>
       </c>
-      <c r="Z75" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="22" t="s">
+      <c r="Z75" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AC75" s="17" cm="1">
+      <c r="AC75" s="16" cm="1">
         <f t="array" ref="AC75:AF75">B82:E82</f>
         <v>-1.2115</v>
       </c>
-      <c r="AD75" s="17">
+      <c r="AD75" s="16">
         <v>0.88629999999999998</v>
       </c>
-      <c r="AE75" s="17">
+      <c r="AE75" s="16">
         <v>0.99709999999999999</v>
       </c>
-      <c r="AF75" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH75" s="22" t="s">
+      <c r="AF75" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AI75" s="17" cm="1">
+      <c r="AI75" s="16" cm="1">
         <f t="array" ref="AI75:AL75">B83:E83</f>
         <v>0.9607</v>
       </c>
-      <c r="AJ75" s="17">
+      <c r="AJ75" s="16">
         <v>0.17849999999999999</v>
       </c>
-      <c r="AK75" s="17">
+      <c r="AK75" s="16">
         <v>0.47349999999999998</v>
       </c>
-      <c r="AL75" s="17">
+      <c r="AL75" s="16">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AN75" s="22" t="s">
+      <c r="AN75" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AO75" s="17" cm="1">
+      <c r="AO75" s="16" cm="1">
         <f t="array" ref="AO75:AR75">B84:E84</f>
         <v>-0.43580000000000002</v>
       </c>
-      <c r="AP75" s="17">
+      <c r="AP75" s="16">
         <v>0.66820000000000002</v>
       </c>
-      <c r="AQ75" s="17">
+      <c r="AQ75" s="16">
         <v>0.9587</v>
       </c>
-      <c r="AR75" s="17">
+      <c r="AR75" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6510,84 +7755,84 @@
       <c r="M76" s="6">
         <v>1</v>
       </c>
-      <c r="P76" s="22" t="s">
+      <c r="P76" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q76" s="17" cm="1">
+      <c r="Q76" s="16" cm="1">
         <f t="array" ref="Q76:T76">F80:I80</f>
         <v>0.2641</v>
       </c>
-      <c r="R76" s="17">
+      <c r="R76" s="16">
         <v>0.38740000000000002</v>
       </c>
-      <c r="S76" s="17">
+      <c r="S76" s="16">
         <v>0.77769999999999995</v>
       </c>
-      <c r="T76" s="17">
-        <v>1</v>
-      </c>
-      <c r="V76" s="22" t="s">
+      <c r="T76" s="16">
+        <v>1</v>
+      </c>
+      <c r="V76" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="W76" s="17" cm="1">
+      <c r="W76" s="16" cm="1">
         <f t="array" ref="W76:Z76">F81:I81</f>
         <v>0.4199</v>
       </c>
-      <c r="X76" s="17">
+      <c r="X76" s="16">
         <v>0.33710000000000001</v>
       </c>
-      <c r="Y76" s="17">
+      <c r="Y76" s="16">
         <v>0.71699999999999997</v>
       </c>
-      <c r="Z76" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB76" s="22" t="s">
+      <c r="Z76" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AC76" s="17" cm="1">
+      <c r="AC76" s="16" cm="1">
         <f t="array" ref="AC76:AF76">F82:I82</f>
         <v>0.85589999999999999</v>
       </c>
-      <c r="AD76" s="17">
+      <c r="AD76" s="16">
         <v>0.19520000000000001</v>
       </c>
-      <c r="AE76" s="17">
+      <c r="AE76" s="16">
         <v>0.51390000000000002</v>
       </c>
-      <c r="AF76" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH76" s="22" t="s">
+      <c r="AF76" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AI76" s="17" cm="1">
+      <c r="AI76" s="16" cm="1">
         <f t="array" ref="AI76:AL76">F83:I83</f>
         <v>-0.1298</v>
       </c>
-      <c r="AJ76" s="17">
+      <c r="AJ76" s="16">
         <v>0.54759999999999998</v>
       </c>
-      <c r="AK76" s="17">
+      <c r="AK76" s="16">
         <v>0.89800000000000002</v>
       </c>
-      <c r="AL76" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN76" s="22" t="s">
+      <c r="AL76" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN76" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AO76" s="17" cm="1">
+      <c r="AO76" s="16" cm="1">
         <f t="array" ref="AO76:AR76">F84:I84</f>
         <v>0.92959999999999998</v>
       </c>
-      <c r="AP76" s="17">
+      <c r="AP76" s="16">
         <v>0.18179999999999999</v>
       </c>
-      <c r="AQ76" s="17">
+      <c r="AQ76" s="16">
         <v>0.47960000000000003</v>
       </c>
-      <c r="AR76" s="17">
+      <c r="AR76" s="16">
         <v>0.99990000000000001</v>
       </c>
     </row>
@@ -6605,185 +7850,185 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="P77" s="22" t="s">
+      <c r="P77" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q77" s="17" cm="1">
+      <c r="Q77" s="16" cm="1">
         <f t="array" ref="Q77:T77">J80:M80</f>
         <v>-0.2641</v>
       </c>
-      <c r="R77" s="17">
+      <c r="R77" s="16">
         <v>0.61270000000000002</v>
       </c>
-      <c r="S77" s="17">
+      <c r="S77" s="16">
         <v>0.92889999999999995</v>
       </c>
-      <c r="T77" s="17">
-        <v>1</v>
-      </c>
-      <c r="V77" s="22" t="s">
+      <c r="T77" s="16">
+        <v>1</v>
+      </c>
+      <c r="V77" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="W77" s="17" cm="1">
+      <c r="W77" s="16" cm="1">
         <f t="array" ref="W77:Z77">J81:M81</f>
         <v>-0.4199</v>
       </c>
-      <c r="X77" s="17">
+      <c r="X77" s="16">
         <v>0.66300000000000003</v>
       </c>
-      <c r="Y77" s="17">
+      <c r="Y77" s="16">
         <v>0.95250000000000001</v>
       </c>
-      <c r="Z77" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB77" s="22" t="s">
+      <c r="Z77" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AC77" s="17" cm="1">
+      <c r="AC77" s="16" cm="1">
         <f t="array" ref="AC77:AF77">J82:M82</f>
         <v>-0.85589999999999999</v>
       </c>
-      <c r="AD77" s="17">
+      <c r="AD77" s="16">
         <v>0.80489999999999995</v>
       </c>
-      <c r="AE77" s="17">
+      <c r="AE77" s="16">
         <v>0.98709999999999998</v>
       </c>
-      <c r="AF77" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH77" s="22" t="s">
+      <c r="AF77" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AI77" s="17" cm="1">
+      <c r="AI77" s="16" cm="1">
         <f t="array" ref="AI77:AL77">J83:M83</f>
         <v>0.1298</v>
       </c>
-      <c r="AJ77" s="17">
+      <c r="AJ77" s="16">
         <v>0.45250000000000001</v>
       </c>
-      <c r="AK77" s="17">
+      <c r="AK77" s="16">
         <v>0.83160000000000001</v>
       </c>
-      <c r="AL77" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN77" s="22" t="s">
+      <c r="AL77" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AO77" s="17" cm="1">
+      <c r="AO77" s="16" cm="1">
         <f t="array" ref="AO77:AR77">J84:M84</f>
         <v>-0.92959999999999998</v>
       </c>
-      <c r="AP77" s="17">
+      <c r="AP77" s="16">
         <v>0.81830000000000003</v>
       </c>
-      <c r="AQ77" s="17">
+      <c r="AQ77" s="16">
         <v>0.98950000000000005</v>
       </c>
-      <c r="AR77" s="17">
+      <c r="AR77" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16" t="s">
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16" t="s">
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="P78" s="22" t="s">
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="P78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" s="17" cm="1">
+      <c r="Q78" s="16" cm="1">
         <f t="array" ref="Q78:T78">B88:E88</f>
         <v>-0.1512</v>
       </c>
-      <c r="R78" s="17">
+      <c r="R78" s="16">
         <v>0.56369999999999998</v>
       </c>
-      <c r="S78" s="17">
+      <c r="S78" s="16">
         <v>0.90990000000000004</v>
       </c>
-      <c r="T78" s="17">
-        <v>1</v>
-      </c>
-      <c r="V78" s="22" t="s">
+      <c r="T78" s="16">
+        <v>1</v>
+      </c>
+      <c r="V78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W78" s="17" cm="1">
+      <c r="W78" s="16" cm="1">
         <f t="array" ref="W78:Z78">B89:E89</f>
         <v>-0.26290000000000002</v>
       </c>
-      <c r="X78" s="17">
+      <c r="X78" s="16">
         <v>0.61029999999999995</v>
       </c>
-      <c r="Y78" s="17">
+      <c r="Y78" s="16">
         <v>0.93120000000000003</v>
       </c>
-      <c r="Z78" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB78" s="22" t="s">
+      <c r="Z78" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AC78" s="17" cm="1">
+      <c r="AC78" s="16" cm="1">
         <f t="array" ref="AC78:AF78">B90:E90</f>
         <v>0.22839999999999999</v>
       </c>
-      <c r="AD78" s="17">
+      <c r="AD78" s="16">
         <v>0.40160000000000001</v>
       </c>
-      <c r="AE78" s="17">
+      <c r="AE78" s="16">
         <v>0.79849999999999999</v>
       </c>
-      <c r="AF78" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH78" s="22" t="s">
+      <c r="AF78" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AI78" s="17" cm="1">
+      <c r="AI78" s="16" cm="1">
         <f t="array" ref="AI78:AL78">B91:E91</f>
         <v>2.1168999999999998</v>
       </c>
-      <c r="AJ78" s="17" t="str">
+      <c r="AJ78" s="16" t="str">
         <v>0.0215*</v>
       </c>
-      <c r="AK78" s="17">
+      <c r="AK78" s="16">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="AL78" s="17">
+      <c r="AL78" s="16">
         <v>0.61170000000000002</v>
       </c>
-      <c r="AN78" s="22" t="s">
+      <c r="AN78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AO78" s="17" cm="1">
+      <c r="AO78" s="16" cm="1">
         <f t="array" ref="AO78:AR78">B92:E92</f>
         <v>-5.1299999999999998E-2</v>
       </c>
-      <c r="AP78" s="17">
+      <c r="AP78" s="16">
         <v>0.52010000000000001</v>
       </c>
-      <c r="AQ78" s="17">
+      <c r="AQ78" s="16">
         <v>0.88560000000000005</v>
       </c>
-      <c r="AR78" s="17">
+      <c r="AR78" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6825,84 +8070,84 @@
       <c r="M79" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P79" s="22" t="s">
+      <c r="P79" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q79" s="17" cm="1">
+      <c r="Q79" s="16" cm="1">
         <f t="array" ref="Q79:T79">F88:I88</f>
         <v>0.1512</v>
       </c>
-      <c r="R79" s="17">
+      <c r="R79" s="16">
         <v>0.43640000000000001</v>
       </c>
-      <c r="S79" s="17">
+      <c r="S79" s="16">
         <v>0.82569999999999999</v>
       </c>
-      <c r="T79" s="17">
-        <v>1</v>
-      </c>
-      <c r="V79" s="22" t="s">
+      <c r="T79" s="16">
+        <v>1</v>
+      </c>
+      <c r="V79" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="W79" s="17" cm="1">
+      <c r="W79" s="16" cm="1">
         <f t="array" ref="W79:Z79">F89:I89</f>
         <v>0.26290000000000002</v>
       </c>
-      <c r="X79" s="17">
+      <c r="X79" s="16">
         <v>0.38979999999999998</v>
       </c>
-      <c r="Y79" s="17">
+      <c r="Y79" s="16">
         <v>0.78549999999999998</v>
       </c>
-      <c r="Z79" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB79" s="22" t="s">
+      <c r="Z79" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC79" s="17" cm="1">
+      <c r="AC79" s="16" cm="1">
         <f t="array" ref="AC79:AF79">F90:I90</f>
         <v>-0.22839999999999999</v>
       </c>
-      <c r="AD79" s="17">
+      <c r="AD79" s="16">
         <v>0.59850000000000003</v>
       </c>
-      <c r="AE79" s="17">
+      <c r="AE79" s="16">
         <v>0.92300000000000004</v>
       </c>
-      <c r="AF79" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH79" s="22" t="s">
+      <c r="AF79" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AI79" s="17" cm="1">
+      <c r="AI79" s="16" cm="1">
         <f t="array" ref="AI79:AL79">F91:I91</f>
         <v>-2.1168999999999998</v>
       </c>
-      <c r="AJ79" s="17">
+      <c r="AJ79" s="16">
         <v>0.97860000000000003</v>
       </c>
-      <c r="AK79" s="17">
-        <v>1</v>
-      </c>
-      <c r="AL79" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN79" s="22" t="s">
+      <c r="AK79" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL79" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN79" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AO79" s="17" cm="1">
+      <c r="AO79" s="16" cm="1">
         <f t="array" ref="AO79:AR79">F92:I92</f>
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="AP79" s="17">
+      <c r="AP79" s="16">
         <v>0.48</v>
       </c>
-      <c r="AQ79" s="17">
+      <c r="AQ79" s="16">
         <v>0.85560000000000003</v>
       </c>
-      <c r="AR79" s="17">
+      <c r="AR79" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6946,84 +8191,84 @@
       <c r="M80" s="5">
         <v>1</v>
       </c>
-      <c r="P80" s="22" t="s">
+      <c r="P80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q80" s="17" cm="1">
+      <c r="Q80" s="16" cm="1">
         <f t="array" ref="Q80:T80">J88:M88</f>
         <v>0.85060000000000002</v>
       </c>
-      <c r="R80" s="17">
+      <c r="R80" s="16">
         <v>0.19650000000000001</v>
       </c>
-      <c r="S80" s="17">
+      <c r="S80" s="16">
         <v>0.5292</v>
       </c>
-      <c r="T80" s="17">
-        <v>1</v>
-      </c>
-      <c r="V80" s="22" t="s">
+      <c r="T80" s="16">
+        <v>1</v>
+      </c>
+      <c r="V80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="W80" s="17" cm="1">
+      <c r="W80" s="16" cm="1">
         <f t="array" ref="W80:Z80">J89:M89</f>
         <v>-6.2E-2</v>
       </c>
-      <c r="X80" s="17">
+      <c r="X80" s="16">
         <v>0.52080000000000004</v>
       </c>
-      <c r="Y80" s="17">
+      <c r="Y80" s="16">
         <v>0.8901</v>
       </c>
-      <c r="Z80" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB80" s="22" t="s">
+      <c r="Z80" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AC80" s="17" cm="1">
+      <c r="AC80" s="16" cm="1">
         <f t="array" ref="AC80:AF80">J90:M90</f>
         <v>-0.87729999999999997</v>
       </c>
-      <c r="AD80" s="17">
+      <c r="AD80" s="16">
         <v>0.8004</v>
       </c>
-      <c r="AE80" s="17">
+      <c r="AE80" s="16">
         <v>0.99019999999999997</v>
       </c>
-      <c r="AF80" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH80" s="22" t="s">
+      <c r="AF80" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AI80" s="17" cm="1">
+      <c r="AI80" s="16" cm="1">
         <f t="array" ref="AI80:AL80">J91:M91</f>
         <v>0.45639999999999997</v>
       </c>
-      <c r="AJ80" s="17">
+      <c r="AJ80" s="16">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AK80" s="17">
+      <c r="AK80" s="16">
         <v>0.71350000000000002</v>
       </c>
-      <c r="AL80" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN80" s="22" t="s">
+      <c r="AL80" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AO80" s="17" cm="1">
+      <c r="AO80" s="16" cm="1">
         <f t="array" ref="AO80:AR80">J92:M92</f>
         <v>-2.2799</v>
       </c>
-      <c r="AP80" s="17">
+      <c r="AP80" s="16">
         <v>0.98470000000000002</v>
       </c>
-      <c r="AQ80" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR80" s="17">
+      <c r="AQ80" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR80" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7067,84 +8312,84 @@
       <c r="M81" s="5">
         <v>1</v>
       </c>
-      <c r="P81" s="22" t="s">
+      <c r="P81" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q81" s="17" cm="1">
+      <c r="Q81" s="16" cm="1">
         <f t="array" ref="Q81:T81">B96:E96</f>
         <v>-0.85060000000000002</v>
       </c>
-      <c r="R81" s="17">
+      <c r="R81" s="16">
         <v>0.80359999999999998</v>
       </c>
-      <c r="S81" s="17">
+      <c r="S81" s="16">
         <v>0.9879</v>
       </c>
-      <c r="T81" s="17">
-        <v>1</v>
-      </c>
-      <c r="V81" s="22" t="s">
+      <c r="T81" s="16">
+        <v>1</v>
+      </c>
+      <c r="V81" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="W81" s="17" cm="1">
+      <c r="W81" s="16" cm="1">
         <f t="array" ref="W81:Z81">B97:E97</f>
         <v>6.2E-2</v>
       </c>
-      <c r="X81" s="17">
+      <c r="X81" s="16">
         <v>0.4793</v>
       </c>
-      <c r="Y81" s="17">
+      <c r="Y81" s="16">
         <v>0.85240000000000005</v>
       </c>
-      <c r="Z81" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB81" s="22" t="s">
+      <c r="Z81" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AC81" s="17" cm="1">
+      <c r="AC81" s="16" cm="1">
         <f t="array" ref="AC81:AF81">B98:E98</f>
         <v>0.87729999999999997</v>
       </c>
-      <c r="AD81" s="17">
+      <c r="AD81" s="16">
         <v>0.19969999999999999</v>
       </c>
-      <c r="AE81" s="17">
+      <c r="AE81" s="16">
         <v>0.51139999999999997</v>
       </c>
-      <c r="AF81" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH81" s="22" t="s">
+      <c r="AF81" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AI81" s="17" cm="1">
+      <c r="AI81" s="16" cm="1">
         <f t="array" ref="AI81:AL81">B99:E99</f>
         <v>-0.45639999999999997</v>
       </c>
-      <c r="AJ81" s="17">
+      <c r="AJ81" s="16">
         <v>0.67710000000000004</v>
       </c>
-      <c r="AK81" s="17">
+      <c r="AK81" s="16">
         <v>0.95860000000000001</v>
       </c>
-      <c r="AL81" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN81" s="22" t="s">
+      <c r="AL81" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN81" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AO81" s="17" cm="1">
+      <c r="AO81" s="16" cm="1">
         <f t="array" ref="AO81:AR81">B100:E100</f>
         <v>2.2799</v>
       </c>
-      <c r="AP81" s="17" t="str">
+      <c r="AP81" s="16" t="str">
         <v>0.0154*</v>
       </c>
-      <c r="AQ81" s="17">
+      <c r="AQ81" s="16">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="AR81" s="17">
+      <c r="AR81" s="16">
         <v>0.4869</v>
       </c>
     </row>
@@ -7188,84 +8433,84 @@
       <c r="M82" s="5">
         <v>1</v>
       </c>
-      <c r="P82" s="22" t="s">
+      <c r="P82" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="17" cm="1">
+      <c r="Q82" s="16" cm="1">
         <f t="array" ref="Q82:T82">F96:I96</f>
         <v>-0.65539999999999998</v>
       </c>
-      <c r="R82" s="17">
+      <c r="R82" s="16">
         <v>0.7349</v>
       </c>
-      <c r="S82" s="17">
+      <c r="S82" s="16">
         <v>0.97670000000000001</v>
       </c>
-      <c r="T82" s="17">
-        <v>1</v>
-      </c>
-      <c r="V82" s="22" t="s">
+      <c r="T82" s="16">
+        <v>1</v>
+      </c>
+      <c r="V82" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W82" s="17" cm="1">
+      <c r="W82" s="16" cm="1">
         <f t="array" ref="W82:Z82">F97:I97</f>
         <v>-3.27E-2</v>
       </c>
-      <c r="X82" s="17">
+      <c r="X82" s="16">
         <v>0.5131</v>
       </c>
-      <c r="Y82" s="17">
+      <c r="Y82" s="16">
         <v>0.88219999999999998</v>
       </c>
-      <c r="Z82" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="22" t="s">
+      <c r="Z82" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC82" s="17" cm="1">
+      <c r="AC82" s="16" cm="1">
         <f t="array" ref="AC82:AF82">F98:I98</f>
         <v>-1.1147</v>
       </c>
-      <c r="AD82" s="17">
+      <c r="AD82" s="16">
         <v>0.86480000000000001</v>
       </c>
-      <c r="AE82" s="17">
+      <c r="AE82" s="16">
         <v>0.996</v>
       </c>
-      <c r="AF82" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH82" s="22" t="s">
+      <c r="AF82" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AI82" s="17" cm="1">
+      <c r="AI82" s="16" cm="1">
         <f t="array" ref="AI82:AL82">F99:I99</f>
         <v>0.69340000000000002</v>
       </c>
-      <c r="AJ82" s="17">
+      <c r="AJ82" s="16">
         <v>0.24579999999999999</v>
       </c>
-      <c r="AK82" s="17">
+      <c r="AK82" s="16">
         <v>0.59650000000000003</v>
       </c>
-      <c r="AL82" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN82" s="22" t="s">
+      <c r="AL82" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN82" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AO82" s="17" cm="1">
+      <c r="AO82" s="16" cm="1">
         <f t="array" ref="AO82:AR82">F100:I100</f>
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="AP82" s="17">
+      <c r="AP82" s="16">
         <v>0.49359999999999998</v>
       </c>
-      <c r="AQ82" s="17">
+      <c r="AQ82" s="16">
         <v>0.86719999999999997</v>
       </c>
-      <c r="AR82" s="17">
+      <c r="AR82" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7309,84 +8554,84 @@
       <c r="M83" s="5">
         <v>1</v>
       </c>
-      <c r="P83" s="23" t="s">
+      <c r="P83" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q83" s="24" cm="1">
+      <c r="Q83" s="22" cm="1">
         <f t="array" ref="Q83:T83">J96:M96</f>
         <v>0.65539999999999998</v>
       </c>
-      <c r="R83" s="24">
+      <c r="R83" s="22">
         <v>0.26519999999999999</v>
       </c>
-      <c r="S83" s="24">
+      <c r="S83" s="22">
         <v>0.61839999999999995</v>
       </c>
-      <c r="T83" s="24">
-        <v>1</v>
-      </c>
-      <c r="V83" s="23" t="s">
+      <c r="T83" s="22">
+        <v>1</v>
+      </c>
+      <c r="V83" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W83" s="24" cm="1">
+      <c r="W83" s="22" cm="1">
         <f t="array" ref="W83:Z83">J97:M97</f>
         <v>3.27E-2</v>
       </c>
-      <c r="X83" s="24">
+      <c r="X83" s="22">
         <v>0.48699999999999999</v>
       </c>
-      <c r="Y83" s="24">
+      <c r="Y83" s="22">
         <v>0.85570000000000002</v>
       </c>
-      <c r="Z83" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB83" s="23" t="s">
+      <c r="Z83" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC83" s="24" cm="1">
+      <c r="AC83" s="22" cm="1">
         <f t="array" ref="AC83:AF83">J98:M98</f>
         <v>1.1147</v>
       </c>
-      <c r="AD83" s="24">
+      <c r="AD83" s="22">
         <v>0.1353</v>
       </c>
-      <c r="AE83" s="24">
+      <c r="AE83" s="22">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AF83" s="24">
+      <c r="AF83" s="22">
         <v>0.99819999999999998</v>
       </c>
-      <c r="AH83" s="23" t="s">
+      <c r="AH83" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI83" s="24" cm="1">
+      <c r="AI83" s="22" cm="1">
         <f t="array" ref="AI83:AL83">J99:M99</f>
         <v>-0.69340000000000002</v>
       </c>
-      <c r="AJ83" s="24">
+      <c r="AJ83" s="22">
         <v>0.75429999999999997</v>
       </c>
-      <c r="AK83" s="24">
+      <c r="AK83" s="22">
         <v>0.97829999999999995</v>
       </c>
-      <c r="AL83" s="24">
-        <v>1</v>
-      </c>
-      <c r="AN83" s="23" t="s">
+      <c r="AL83" s="22">
+        <v>1</v>
+      </c>
+      <c r="AN83" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AO83" s="24" cm="1">
+      <c r="AO83" s="22" cm="1">
         <f t="array" ref="AO83:AR83">J100:M100</f>
         <v>-1.7100000000000001E-2</v>
       </c>
-      <c r="AP83" s="24">
+      <c r="AP83" s="22">
         <v>0.50649999999999995</v>
       </c>
-      <c r="AQ83" s="24">
+      <c r="AQ83" s="22">
         <v>0.87050000000000005</v>
       </c>
-      <c r="AR83" s="24">
+      <c r="AR83" s="22">
         <v>1</v>
       </c>
     </row>
@@ -7448,24 +8693,24 @@
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16" t="s">
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16" t="s">
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
@@ -7728,24 +8973,24 @@
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16" t="s">
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16" t="s">
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -8022,28 +9267,29 @@
       <c r="M102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="V70:Z70"/>
-    <mergeCell ref="AB70:AF70"/>
-    <mergeCell ref="AH70:AL70"/>
-    <mergeCell ref="AN70:AR70"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AB36:AF36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AN36:AR36"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
+  <mergeCells count="59">
+    <mergeCell ref="AV34:AX34"/>
+    <mergeCell ref="AY34:BA34"/>
+    <mergeCell ref="BB34:BD34"/>
+    <mergeCell ref="AV49:AX49"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="B94:E94"/>
     <mergeCell ref="F94:I94"/>
     <mergeCell ref="J94:M94"/>
@@ -8060,21 +9306,29 @@
     <mergeCell ref="F78:I78"/>
     <mergeCell ref="J78:M78"/>
     <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AB36:AF36"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AN36:AR36"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="V70:Z70"/>
+    <mergeCell ref="AB70:AF70"/>
+    <mergeCell ref="AH70:AL70"/>
+    <mergeCell ref="AN70:AR70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/derivatives/palm_data/output_corrcon_ise_ee/ppi_ee_output_formatted.xlsx
+++ b/derivatives/palm_data/output_corrcon_ise_ee/ppi_ee_output_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/derivatives/palm_data/output_corrcon_ise_ee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD1DD27B-4B88-EF4B-87B7-6CE4BA97B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BA0E5722-0A76-884F-A9EA-426893F2DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25860" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_output" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="638" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="675" uniqueCount="101">
   <si>
     <t>rFFA</t>
   </si>
@@ -307,13 +307,67 @@
   </si>
   <si>
     <t>(Social Decision &gt; Baseline) &gt; (Monetary Decision &gt; Basline)</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>H1: Exploratory A</t>
+  </si>
+  <si>
+    <t>H1: Exploratory B</t>
+  </si>
+  <si>
+    <t>H2: Exploratory A</t>
+  </si>
+  <si>
+    <t>VS activation</t>
+  </si>
+  <si>
+    <t>TPJ activation</t>
+  </si>
+  <si>
+    <t>VS-dmPFC connectivity</t>
+  </si>
+  <si>
+    <t>VS-vmPFC connectivity</t>
+  </si>
+  <si>
+    <t>SU +</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SU x RS squared -</t>
+  </si>
+  <si>
+    <t>0.0184*</t>
+  </si>
+  <si>
+    <t>SU -</t>
+  </si>
+  <si>
+    <t>&lt;.05*</t>
+  </si>
+  <si>
+    <t>Hypothesis 1</t>
+  </si>
+  <si>
+    <t>Hypothesis 2</t>
+  </si>
+  <si>
+    <t>RS +</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,19 +535,26 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -901,7 +962,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,27 +1022,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -989,10 +1034,53 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1350,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH102"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2:BH6"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BJ5" sqref="BJ5:BP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,10 +1488,18 @@
     <col min="58" max="58" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="59" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="10.83203125" style="1"/>
+    <col min="61" max="61" width="10.83203125" style="1"/>
+    <col min="62" max="62" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -1421,93 +1517,106 @@
       <c r="M1" s="5"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+    </row>
+    <row r="2" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="P2" s="23" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="P2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
       <c r="AA2" s="17"/>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="23" t="s">
+      <c r="AH2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
       <c r="AM2" s="17"/>
-      <c r="AN2" s="23" t="s">
+      <c r="AN2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="28" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28" t="s">
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28" t="s">
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BF2" s="33">
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BF2" s="25">
         <v>3</v>
       </c>
-      <c r="BG2" s="33" t="s">
+      <c r="BG2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="BH2" s="33" t="s">
+      <c r="BH2" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -1620,47 +1729,48 @@
       <c r="AR3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="29" t="s">
+      <c r="AU3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AV3" s="30" t="s">
+      <c r="AV3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AW3" s="30" t="s">
+      <c r="AW3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="30" t="s">
+      <c r="AX3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="30" t="s">
+      <c r="AY3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AZ3" s="30" t="s">
+      <c r="AZ3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA3" s="30" t="s">
+      <c r="BA3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BB3" s="30" t="s">
+      <c r="BB3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BC3" s="30" t="s">
+      <c r="BC3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BD3" s="30" t="s">
+      <c r="BD3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="26" t="s">
+      <c r="BF3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BG3" s="26" t="s">
+      <c r="BG3" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="BH3" s="26" t="s">
+      <c r="BH3" s="24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ3" s="37"/>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1783,47 +1893,47 @@
       <c r="AR4" s="16">
         <v>1</v>
       </c>
-      <c r="AU4" s="26" t="s">
+      <c r="AU4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AV4" s="25">
+      <c r="AV4" s="23">
         <v>0.45040000000000002</v>
       </c>
-      <c r="AW4" s="25">
+      <c r="AW4" s="23">
         <v>0.32</v>
       </c>
-      <c r="AX4" s="25">
+      <c r="AX4" s="23">
         <v>0.72909999999999997</v>
       </c>
-      <c r="AY4" s="25">
+      <c r="AY4" s="23">
         <v>1.1788000000000001</v>
       </c>
-      <c r="AZ4" s="25">
+      <c r="AZ4" s="23">
         <v>0.1249</v>
       </c>
-      <c r="BA4" s="25">
+      <c r="BA4" s="23">
         <v>0.43630000000000002</v>
       </c>
-      <c r="BB4" s="25">
+      <c r="BB4" s="23">
         <v>-0.26579999999999998</v>
       </c>
-      <c r="BC4" s="25">
+      <c r="BC4" s="23">
         <v>0.59760000000000002</v>
       </c>
-      <c r="BD4" s="25">
+      <c r="BD4" s="23">
         <v>0.92200000000000004</v>
       </c>
-      <c r="BF4" s="26" t="s">
+      <c r="BF4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BG4" s="26" t="s">
+      <c r="BG4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="BH4" s="26" t="s">
+      <c r="BH4" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1946,47 +2056,68 @@
       <c r="AR5" s="16">
         <v>1</v>
       </c>
-      <c r="AU5" s="26" t="s">
+      <c r="AU5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AV5" s="25">
+      <c r="AV5" s="23">
         <v>-0.45040000000000002</v>
       </c>
-      <c r="AW5" s="25">
+      <c r="AW5" s="23">
         <v>0.68010000000000004</v>
       </c>
-      <c r="AX5" s="25">
+      <c r="AX5" s="23">
         <v>0.96719999999999995</v>
       </c>
-      <c r="AY5" s="25">
+      <c r="AY5" s="23">
         <v>-1.1788000000000001</v>
       </c>
-      <c r="AZ5" s="25">
+      <c r="AZ5" s="23">
         <v>0.87519999999999998</v>
       </c>
-      <c r="BA5" s="25">
+      <c r="BA5" s="23">
         <v>0.99990000000000001</v>
       </c>
-      <c r="BB5" s="25">
+      <c r="BB5" s="23">
         <v>0.26579999999999998</v>
       </c>
-      <c r="BC5" s="25">
+      <c r="BC5" s="23">
         <v>0.40250000000000002</v>
       </c>
-      <c r="BD5" s="25">
+      <c r="BD5" s="23">
         <v>0.78129999999999999</v>
       </c>
-      <c r="BF5" s="34" t="s">
+      <c r="BF5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BG5" s="34" t="s">
+      <c r="BG5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="BH5" s="34" t="s">
+      <c r="BH5" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ5" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP5" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2106,47 +2237,68 @@
       <c r="AR6" s="16">
         <v>0.32800000000000001</v>
       </c>
-      <c r="AU6" s="26" t="s">
+      <c r="AU6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AV6" s="25">
+      <c r="AV6" s="23">
         <v>1.7279</v>
       </c>
-      <c r="AW6" s="25" t="s">
+      <c r="AW6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AX6" s="25">
+      <c r="AX6" s="23">
         <v>0.1757</v>
       </c>
-      <c r="AY6" s="25">
+      <c r="AY6" s="23">
         <v>-6.7100000000000007E-2</v>
       </c>
-      <c r="AZ6" s="25">
+      <c r="AZ6" s="23">
         <v>0.53879999999999995</v>
       </c>
-      <c r="BA6" s="25">
+      <c r="BA6" s="23">
         <v>0.95899999999999996</v>
       </c>
-      <c r="BB6" s="25">
+      <c r="BB6" s="23">
         <v>-0.9607</v>
       </c>
-      <c r="BC6" s="25">
+      <c r="BC6" s="23">
         <v>0.8216</v>
       </c>
-      <c r="BD6" s="25">
+      <c r="BD6" s="23">
         <v>0.99239999999999995</v>
       </c>
-      <c r="BF6" s="31" t="s">
+      <c r="BF6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="BG6" s="31" t="s">
+      <c r="BG6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="BH6" s="31" t="s">
+      <c r="BH6" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN6" s="40">
+        <v>-1.1076999999999999</v>
+      </c>
+      <c r="BO6" s="40">
+        <v>0.8649</v>
+      </c>
+      <c r="BP6" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2266,38 +2418,59 @@
       <c r="AR7" s="16">
         <v>1</v>
       </c>
-      <c r="AU7" s="26" t="s">
+      <c r="AU7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AV7" s="25">
+      <c r="AV7" s="23">
         <v>-1.7279</v>
       </c>
-      <c r="AW7" s="25">
+      <c r="AW7" s="23">
         <v>0.95340000000000003</v>
       </c>
-      <c r="AX7" s="25">
+      <c r="AX7" s="23">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AY7" s="25">
+      <c r="AY7" s="23">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="AZ7" s="25">
+      <c r="AZ7" s="23">
         <v>0.46129999999999999</v>
       </c>
-      <c r="BA7" s="25">
+      <c r="BA7" s="23">
         <v>0.93669999999999998</v>
       </c>
-      <c r="BB7" s="25">
+      <c r="BB7" s="23">
         <v>0.9607</v>
       </c>
-      <c r="BC7" s="25">
+      <c r="BC7" s="23">
         <v>0.17849999999999999</v>
       </c>
-      <c r="BD7" s="25">
+      <c r="BD7" s="23">
         <v>0.47349999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ7" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN7" s="40">
+        <v>2.198</v>
+      </c>
+      <c r="BO7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP7" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2417,38 +2590,59 @@
       <c r="AR8" s="16">
         <v>1</v>
       </c>
-      <c r="AU8" s="26" t="s">
+      <c r="AU8" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AV8" s="25">
+      <c r="AV8" s="23">
         <v>-0.3105</v>
       </c>
-      <c r="AW8" s="25">
+      <c r="AW8" s="23">
         <v>0.62419999999999998</v>
       </c>
-      <c r="AX8" s="25">
+      <c r="AX8" s="23">
         <v>0.95630000000000004</v>
       </c>
-      <c r="AY8" s="25">
+      <c r="AY8" s="23">
         <v>-0.56489999999999996</v>
       </c>
-      <c r="AZ8" s="25">
+      <c r="AZ8" s="23">
         <v>0.71989999999999998</v>
       </c>
-      <c r="BA8" s="25">
+      <c r="BA8" s="23">
         <v>0.9929</v>
       </c>
-      <c r="BB8" s="25">
+      <c r="BB8" s="23">
         <v>-0.1298</v>
       </c>
-      <c r="BC8" s="25">
+      <c r="BC8" s="23">
         <v>0.54759999999999998</v>
       </c>
-      <c r="BD8" s="25">
+      <c r="BD8" s="23">
         <v>0.89800000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN8" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP8" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2544,57 +2738,78 @@
       <c r="AR9" s="16">
         <v>1</v>
       </c>
-      <c r="AU9" s="26" t="s">
+      <c r="AU9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AV9" s="25">
+      <c r="AV9" s="23">
         <v>0.3105</v>
       </c>
-      <c r="AW9" s="25">
+      <c r="AW9" s="23">
         <v>0.37590000000000001</v>
       </c>
-      <c r="AX9" s="25">
+      <c r="AX9" s="23">
         <v>0.7923</v>
       </c>
-      <c r="AY9" s="25">
+      <c r="AY9" s="23">
         <v>0.56489999999999996</v>
       </c>
-      <c r="AZ9" s="25">
+      <c r="AZ9" s="23">
         <v>0.2802</v>
       </c>
-      <c r="BA9" s="25">
+      <c r="BA9" s="23">
         <v>0.76459999999999995</v>
       </c>
-      <c r="BB9" s="25">
+      <c r="BB9" s="23">
         <v>0.1298</v>
       </c>
-      <c r="BC9" s="25">
+      <c r="BC9" s="23">
         <v>0.45250000000000001</v>
       </c>
-      <c r="BD9" s="25">
+      <c r="BD9" s="23">
         <v>0.83160000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL9" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM9" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN9" s="40">
+        <v>2.5251000000000001</v>
+      </c>
+      <c r="BO9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP9" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
       <c r="P10" s="20" t="s">
         <v>24</v>
       </c>
@@ -2675,38 +2890,59 @@
       <c r="AR10" s="16">
         <v>1</v>
       </c>
-      <c r="AU10" s="26" t="s">
+      <c r="AU10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AV10" s="25">
+      <c r="AV10" s="23">
         <v>-2.5251000000000001</v>
       </c>
-      <c r="AW10" s="25">
+      <c r="AW10" s="23">
         <v>0.99309999999999998</v>
       </c>
-      <c r="AX10" s="25">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="25">
+      <c r="AX10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="23">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AZ10" s="25">
+      <c r="AZ10" s="23">
         <v>0.34370000000000001</v>
       </c>
-      <c r="BA10" s="25">
+      <c r="BA10" s="23">
         <v>0.83069999999999999</v>
       </c>
-      <c r="BB10" s="25">
+      <c r="BB10" s="23">
         <v>2.1168999999999998</v>
       </c>
-      <c r="BC10" s="25" t="s">
+      <c r="BC10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BD10" s="25">
+      <c r="BD10" s="23">
         <v>8.6800000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BJ10" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK10" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL10" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM10" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN10" s="38">
+        <v>2.5282</v>
+      </c>
+      <c r="BO10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP10" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="11" t="s">
         <v>11</v>
@@ -2824,38 +3060,38 @@
       <c r="AR11" s="16">
         <v>1</v>
       </c>
-      <c r="AU11" s="26" t="s">
+      <c r="AU11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV11" s="25">
+      <c r="AV11" s="23">
         <v>2.5251000000000001</v>
       </c>
-      <c r="AW11" s="25" t="s">
+      <c r="AW11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AX11" s="25" t="s">
+      <c r="AX11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AY11" s="25">
+      <c r="AY11" s="23">
         <v>-0.39200000000000002</v>
       </c>
-      <c r="AZ11" s="25">
+      <c r="AZ11" s="23">
         <v>0.65639999999999998</v>
       </c>
-      <c r="BA11" s="25">
+      <c r="BA11" s="23">
         <v>0.98360000000000003</v>
       </c>
-      <c r="BB11" s="25">
+      <c r="BB11" s="23">
         <v>-2.1168999999999998</v>
       </c>
-      <c r="BC11" s="25">
+      <c r="BC11" s="23">
         <v>0.97860000000000003</v>
       </c>
-      <c r="BD11" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BD11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -2975,38 +3211,38 @@
       <c r="AR12" s="16">
         <v>0.59570000000000001</v>
       </c>
-      <c r="AU12" s="26" t="s">
+      <c r="AU12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AV12" s="25">
+      <c r="AV12" s="23">
         <v>2.0167999999999999</v>
       </c>
-      <c r="AW12" s="25" t="s">
+      <c r="AW12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AX12" s="25">
+      <c r="AX12" s="23">
         <v>0.1017</v>
       </c>
-      <c r="AY12" s="25">
+      <c r="AY12" s="23">
         <v>0.91210000000000002</v>
       </c>
-      <c r="AZ12" s="25">
+      <c r="AZ12" s="23">
         <v>0.18260000000000001</v>
       </c>
-      <c r="BA12" s="25">
+      <c r="BA12" s="23">
         <v>0.60209999999999997</v>
       </c>
-      <c r="BB12" s="25">
+      <c r="BB12" s="23">
         <v>0.45639999999999997</v>
       </c>
-      <c r="BC12" s="25">
+      <c r="BC12" s="23">
         <v>0.32300000000000001</v>
       </c>
-      <c r="BD12" s="25">
+      <c r="BD12" s="23">
         <v>0.71350000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -3126,38 +3362,38 @@
       <c r="AR13" s="16">
         <v>1</v>
       </c>
-      <c r="AU13" s="26" t="s">
+      <c r="AU13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AV13" s="25">
+      <c r="AV13" s="23">
         <v>-2.0167999999999999</v>
       </c>
-      <c r="AW13" s="25">
+      <c r="AW13" s="23">
         <v>0.97509999999999997</v>
       </c>
-      <c r="AX13" s="25">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="25">
+      <c r="AX13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="23">
         <v>-0.91210000000000002</v>
       </c>
-      <c r="AZ13" s="25">
+      <c r="AZ13" s="23">
         <v>0.8175</v>
       </c>
-      <c r="BA13" s="25">
+      <c r="BA13" s="23">
         <v>0.99929999999999997</v>
       </c>
-      <c r="BB13" s="25">
+      <c r="BB13" s="23">
         <v>-0.45639999999999997</v>
       </c>
-      <c r="BC13" s="25">
+      <c r="BC13" s="23">
         <v>0.67710000000000004</v>
       </c>
-      <c r="BD13" s="25">
+      <c r="BD13" s="23">
         <v>0.95860000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -3277,38 +3513,38 @@
       <c r="AR14" s="16">
         <v>1</v>
       </c>
-      <c r="AU14" s="26" t="s">
+      <c r="AU14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AV14" s="25">
+      <c r="AV14" s="23">
         <v>-0.29949999999999999</v>
       </c>
-      <c r="AW14" s="25">
+      <c r="AW14" s="23">
         <v>0.61260000000000003</v>
       </c>
-      <c r="AX14" s="25">
+      <c r="AX14" s="23">
         <v>0.95209999999999995</v>
       </c>
-      <c r="AY14" s="25">
+      <c r="AY14" s="23">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AZ14" s="25">
+      <c r="AZ14" s="23">
         <v>0.2162</v>
       </c>
-      <c r="BA14" s="25">
+      <c r="BA14" s="23">
         <v>0.67430000000000001</v>
       </c>
-      <c r="BB14" s="25">
+      <c r="BB14" s="23">
         <v>0.69340000000000002</v>
       </c>
-      <c r="BC14" s="25">
+      <c r="BC14" s="23">
         <v>0.24579999999999999</v>
       </c>
-      <c r="BD14" s="25">
+      <c r="BD14" s="23">
         <v>0.59650000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -3428,38 +3664,38 @@
       <c r="AR15" s="22">
         <v>1</v>
       </c>
-      <c r="AU15" s="31" t="s">
+      <c r="AU15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AV15" s="32">
+      <c r="AV15" s="26">
         <v>0.29949999999999999</v>
       </c>
-      <c r="AW15" s="32">
+      <c r="AW15" s="26">
         <v>0.38750000000000001</v>
       </c>
-      <c r="AX15" s="32">
+      <c r="AX15" s="26">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AY15" s="32">
+      <c r="AY15" s="26">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="AZ15" s="32">
+      <c r="AZ15" s="26">
         <v>0.78390000000000004</v>
       </c>
-      <c r="BA15" s="32">
+      <c r="BA15" s="26">
         <v>0.99839999999999995</v>
       </c>
-      <c r="BB15" s="32">
+      <c r="BB15" s="26">
         <v>-0.69340000000000002</v>
       </c>
-      <c r="BC15" s="32">
+      <c r="BC15" s="26">
         <v>0.75429999999999997</v>
       </c>
-      <c r="BD15" s="32">
+      <c r="BD15" s="26">
         <v>0.97829999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -3499,6 +3735,10 @@
       <c r="M16" s="6">
         <v>1</v>
       </c>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="34"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -3516,43 +3756,43 @@
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="28" t="s">
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="AU18" s="29" t="s">
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="AU18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AV18" s="30" t="s">
+      <c r="AV18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AW18" s="30" t="s">
+      <c r="AW18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AX18" s="30" t="s">
+      <c r="AX18" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3594,16 +3834,16 @@
       <c r="M19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AU19" s="26" t="s">
+      <c r="AU19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AV19" s="25">
+      <c r="AV19" s="23">
         <v>-0.26579999999999998</v>
       </c>
-      <c r="AW19" s="25">
+      <c r="AW19" s="23">
         <v>0.59760000000000002</v>
       </c>
-      <c r="AX19" s="25">
+      <c r="AX19" s="23">
         <v>0.92200000000000004</v>
       </c>
     </row>
@@ -3647,16 +3887,16 @@
       <c r="M20" s="5">
         <v>1</v>
       </c>
-      <c r="AU20" s="26" t="s">
+      <c r="AU20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AV20" s="25">
+      <c r="AV20" s="23">
         <v>0.26579999999999998</v>
       </c>
-      <c r="AW20" s="25">
+      <c r="AW20" s="23">
         <v>0.40250000000000002</v>
       </c>
-      <c r="AX20" s="25">
+      <c r="AX20" s="23">
         <v>0.78129999999999999</v>
       </c>
     </row>
@@ -3700,16 +3940,16 @@
       <c r="M21" s="5">
         <v>1</v>
       </c>
-      <c r="AU21" s="26" t="s">
+      <c r="AU21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AV21" s="25">
+      <c r="AV21" s="23">
         <v>-0.9607</v>
       </c>
-      <c r="AW21" s="25">
+      <c r="AW21" s="23">
         <v>0.8216</v>
       </c>
-      <c r="AX21" s="25">
+      <c r="AX21" s="23">
         <v>0.99239999999999995</v>
       </c>
     </row>
@@ -3753,16 +3993,16 @@
       <c r="M22" s="5">
         <v>1</v>
       </c>
-      <c r="AU22" s="26" t="s">
+      <c r="AU22" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AV22" s="25">
+      <c r="AV22" s="23">
         <v>0.9607</v>
       </c>
-      <c r="AW22" s="25">
+      <c r="AW22" s="23">
         <v>0.17849999999999999</v>
       </c>
-      <c r="AX22" s="25">
+      <c r="AX22" s="23">
         <v>0.47349999999999998</v>
       </c>
     </row>
@@ -3806,16 +4046,16 @@
       <c r="M23" s="5">
         <v>0.6996</v>
       </c>
-      <c r="AU23" s="26" t="s">
+      <c r="AU23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AV23" s="25">
+      <c r="AV23" s="23">
         <v>-0.1298</v>
       </c>
-      <c r="AW23" s="25">
+      <c r="AW23" s="23">
         <v>0.54759999999999998</v>
       </c>
-      <c r="AX23" s="25">
+      <c r="AX23" s="23">
         <v>0.89800000000000002</v>
       </c>
     </row>
@@ -3859,16 +4099,16 @@
       <c r="M24" s="6">
         <v>0.59570000000000001</v>
       </c>
-      <c r="AU24" s="26" t="s">
+      <c r="AU24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AV24" s="25">
+      <c r="AV24" s="23">
         <v>0.1298</v>
       </c>
-      <c r="AW24" s="25">
+      <c r="AW24" s="23">
         <v>0.45250000000000001</v>
       </c>
-      <c r="AX24" s="25">
+      <c r="AX24" s="23">
         <v>0.83160000000000001</v>
       </c>
     </row>
@@ -3888,51 +4128,51 @@
       <c r="M25" s="3"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="AU25" s="26" t="s">
+      <c r="AU25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AV25" s="25">
+      <c r="AV25" s="23">
         <v>2.1168999999999998</v>
       </c>
-      <c r="AW25" s="25" t="s">
+      <c r="AW25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AX25" s="25">
+      <c r="AX25" s="23">
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24" t="s">
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="AU26" s="26" t="s">
+      <c r="AU26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV26" s="25">
+      <c r="AV26" s="23">
         <v>-2.1168999999999998</v>
       </c>
-      <c r="AW26" s="25">
+      <c r="AW26" s="23">
         <v>0.97860000000000003</v>
       </c>
-      <c r="AX26" s="25">
+      <c r="AX26" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3976,16 +4216,16 @@
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="AU27" s="26" t="s">
+      <c r="AU27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AV27" s="25">
+      <c r="AV27" s="23">
         <v>0.45639999999999997</v>
       </c>
-      <c r="AW27" s="25">
+      <c r="AW27" s="23">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AX27" s="25">
+      <c r="AX27" s="23">
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4031,16 +4271,16 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="AU28" s="26" t="s">
+      <c r="AU28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AV28" s="25">
+      <c r="AV28" s="23">
         <v>-0.45639999999999997</v>
       </c>
-      <c r="AW28" s="25">
+      <c r="AW28" s="23">
         <v>0.67710000000000004</v>
       </c>
-      <c r="AX28" s="25">
+      <c r="AX28" s="23">
         <v>0.95860000000000001</v>
       </c>
     </row>
@@ -4086,16 +4326,16 @@
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="AU29" s="26" t="s">
+      <c r="AU29" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AV29" s="25">
+      <c r="AV29" s="23">
         <v>0.69340000000000002</v>
       </c>
-      <c r="AW29" s="25">
+      <c r="AW29" s="23">
         <v>0.24579999999999999</v>
       </c>
-      <c r="AX29" s="25">
+      <c r="AX29" s="23">
         <v>0.59650000000000003</v>
       </c>
     </row>
@@ -4141,16 +4381,16 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="AU30" s="31" t="s">
+      <c r="AU30" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AV30" s="32">
+      <c r="AV30" s="26">
         <v>-0.69340000000000002</v>
       </c>
-      <c r="AW30" s="32">
+      <c r="AW30" s="26">
         <v>0.75429999999999997</v>
       </c>
-      <c r="AX30" s="32">
+      <c r="AX30" s="26">
         <v>0.97829999999999995</v>
       </c>
     </row>
@@ -4256,6 +4496,16 @@
       <c r="M33" s="14"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
+      <c r="AU33" s="33"/>
+      <c r="AV33" s="33"/>
+      <c r="AW33" s="33"/>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="33"/>
+      <c r="AZ33" s="33"/>
+      <c r="BA33" s="33"/>
+      <c r="BB33" s="33"/>
+      <c r="BC33" s="33"/>
+      <c r="BD33" s="33"/>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
@@ -4273,22 +4523,22 @@
       <c r="M34" s="14"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="AU34" s="27"/>
-      <c r="AV34" s="28" t="s">
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28" t="s">
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32"/>
+      <c r="AY34" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28" t="s">
+      <c r="AZ34" s="32"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="28"/>
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
@@ -4308,122 +4558,122 @@
       <c r="M35" s="5"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="AU35" s="29" t="s">
+      <c r="AU35" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AV35" s="30" t="s">
+      <c r="AV35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AW35" s="30" t="s">
+      <c r="AW35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AX35" s="30" t="s">
+      <c r="AX35" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AY35" s="30" t="s">
+      <c r="AY35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AZ35" s="30" t="s">
+      <c r="AZ35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA35" s="30" t="s">
+      <c r="BA35" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BB35" s="30" t="s">
+      <c r="BB35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BC35" s="30" t="s">
+      <c r="BC35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BD35" s="30" t="s">
+      <c r="BD35" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24" t="s">
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="23" t="s">
+      <c r="P36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
       <c r="U36" s="17"/>
-      <c r="V36" s="23" t="s">
+      <c r="V36" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
       <c r="AA36" s="17"/>
-      <c r="AB36" s="23" t="s">
+      <c r="AB36" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
       <c r="AG36" s="17"/>
-      <c r="AH36" s="23" t="s">
+      <c r="AH36" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
       <c r="AM36" s="17"/>
-      <c r="AN36" s="23" t="s">
+      <c r="AN36" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AU36" s="26" t="s">
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AU36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AV36" s="25">
+      <c r="AV36" s="23">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AW36" s="25">
+      <c r="AW36" s="23">
         <v>0.50480000000000003</v>
       </c>
-      <c r="AX36" s="25">
+      <c r="AX36" s="23">
         <v>0.87949999999999995</v>
       </c>
-      <c r="AY36" s="25">
+      <c r="AY36" s="23">
         <v>1.8071999999999999</v>
       </c>
-      <c r="AZ36" s="25" t="s">
+      <c r="AZ36" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="BA36" s="25">
+      <c r="BA36" s="23">
         <v>0.1716</v>
       </c>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="25"/>
-      <c r="BD36" s="25"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
@@ -4540,30 +4790,30 @@
       <c r="AR37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AU37" s="26" t="s">
+      <c r="AU37" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AV37" s="25">
+      <c r="AV37" s="23">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="AW37" s="25">
+      <c r="AW37" s="23">
         <v>0.49530000000000002</v>
       </c>
-      <c r="AX37" s="25">
+      <c r="AX37" s="23">
         <v>0.8891</v>
       </c>
-      <c r="AY37" s="25">
+      <c r="AY37" s="23">
         <v>-1.8071999999999999</v>
       </c>
-      <c r="AZ37" s="25">
+      <c r="AZ37" s="23">
         <v>0.96120000000000005</v>
       </c>
-      <c r="BA37" s="25">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="25"/>
-      <c r="BD37" s="25"/>
+      <c r="BA37" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -4688,30 +4938,30 @@
       <c r="AR38" s="16">
         <v>0.88249999999999995</v>
       </c>
-      <c r="AU38" s="26" t="s">
+      <c r="AU38" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AV38" s="25">
+      <c r="AV38" s="23">
         <v>2.5282</v>
       </c>
-      <c r="AW38" s="25" t="s">
+      <c r="AW38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AX38" s="25" t="s">
+      <c r="AX38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AY38" s="25">
+      <c r="AY38" s="23">
         <v>0.68089999999999995</v>
       </c>
-      <c r="AZ38" s="25">
+      <c r="AZ38" s="23">
         <v>0.25019999999999998</v>
       </c>
-      <c r="BA38" s="25">
+      <c r="BA38" s="23">
         <v>0.73270000000000002</v>
       </c>
-      <c r="BB38" s="25"/>
-      <c r="BC38" s="25"/>
-      <c r="BD38" s="25"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -4836,30 +5086,30 @@
       <c r="AR39" s="16">
         <v>1</v>
       </c>
-      <c r="AU39" s="26" t="s">
+      <c r="AU39" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AV39" s="25">
+      <c r="AV39" s="23">
         <v>-2.5282</v>
       </c>
-      <c r="AW39" s="25">
+      <c r="AW39" s="23">
         <v>0.99270000000000003</v>
       </c>
-      <c r="AX39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AY39" s="25">
+      <c r="AX39" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="23">
         <v>-0.68089999999999995</v>
       </c>
-      <c r="AZ39" s="25">
+      <c r="AZ39" s="23">
         <v>0.74990000000000001</v>
       </c>
-      <c r="BA39" s="25">
+      <c r="BA39" s="23">
         <v>0.99680000000000002</v>
       </c>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="25"/>
-      <c r="BD39" s="25"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -4981,30 +5231,30 @@
       <c r="AR40" s="16">
         <v>1</v>
       </c>
-      <c r="AU40" s="26" t="s">
+      <c r="AU40" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AV40" s="25">
+      <c r="AV40" s="23">
         <v>0.87680000000000002</v>
       </c>
-      <c r="AW40" s="25">
+      <c r="AW40" s="23">
         <v>0.192</v>
       </c>
-      <c r="AX40" s="25">
+      <c r="AX40" s="23">
         <v>0.53820000000000001</v>
       </c>
-      <c r="AY40" s="25">
+      <c r="AY40" s="23">
         <v>-1.7859</v>
       </c>
-      <c r="AZ40" s="25">
+      <c r="AZ40" s="23">
         <v>0.9597</v>
       </c>
-      <c r="BA40" s="25">
-        <v>1</v>
-      </c>
-      <c r="BB40" s="25"/>
-      <c r="BC40" s="25"/>
-      <c r="BD40" s="25"/>
+      <c r="BA40" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="23"/>
+      <c r="BC40" s="23"/>
+      <c r="BD40" s="23"/>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
@@ -5126,30 +5376,30 @@
       <c r="AR41" s="16">
         <v>1</v>
       </c>
-      <c r="AU41" s="26" t="s">
+      <c r="AU41" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AV41" s="25">
+      <c r="AV41" s="23">
         <v>-0.87680000000000002</v>
       </c>
-      <c r="AW41" s="25">
+      <c r="AW41" s="23">
         <v>0.80810000000000004</v>
       </c>
-      <c r="AX41" s="25">
+      <c r="AX41" s="23">
         <v>0.99429999999999996</v>
       </c>
-      <c r="AY41" s="25">
+      <c r="AY41" s="23">
         <v>1.7859</v>
       </c>
-      <c r="AZ41" s="25" t="s">
+      <c r="AZ41" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="BA41" s="25">
+      <c r="BA41" s="23">
         <v>0.1827</v>
       </c>
-      <c r="BB41" s="25"/>
-      <c r="BC41" s="25"/>
-      <c r="BD41" s="25"/>
+      <c r="BB41" s="23"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="23"/>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -5271,30 +5521,30 @@
       <c r="AR42" s="16">
         <v>1</v>
       </c>
-      <c r="AU42" s="26" t="s">
+      <c r="AU42" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AV42" s="25">
+      <c r="AV42" s="23">
         <v>-0.56020000000000003</v>
       </c>
-      <c r="AW42" s="25">
+      <c r="AW42" s="23">
         <v>0.70309999999999995</v>
       </c>
-      <c r="AX42" s="25">
+      <c r="AX42" s="23">
         <v>0.97899999999999998</v>
       </c>
-      <c r="AY42" s="25">
+      <c r="AY42" s="23">
         <v>2.2153999999999998</v>
       </c>
-      <c r="AZ42" s="25" t="s">
+      <c r="AZ42" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BA42" s="25">
+      <c r="BA42" s="23">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="BB42" s="25"/>
-      <c r="BC42" s="25"/>
-      <c r="BD42" s="25"/>
+      <c r="BB42" s="23"/>
+      <c r="BC42" s="23"/>
+      <c r="BD42" s="23"/>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -5390,51 +5640,51 @@
       <c r="AR43" s="16">
         <v>0.89480000000000004</v>
       </c>
-      <c r="AU43" s="26" t="s">
+      <c r="AU43" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV43" s="25">
+      <c r="AV43" s="23">
         <v>0.56020000000000003</v>
       </c>
-      <c r="AW43" s="25">
+      <c r="AW43" s="23">
         <v>0.29699999999999999</v>
       </c>
-      <c r="AX43" s="25">
+      <c r="AX43" s="23">
         <v>0.70569999999999999</v>
       </c>
-      <c r="AY43" s="25">
+      <c r="AY43" s="23">
         <v>-2.2153999999999998</v>
       </c>
-      <c r="AZ43" s="25">
+      <c r="AZ43" s="23">
         <v>0.98480000000000001</v>
       </c>
-      <c r="BA43" s="25">
-        <v>1</v>
-      </c>
-      <c r="BB43" s="25"/>
-      <c r="BC43" s="25"/>
-      <c r="BD43" s="25"/>
+      <c r="BA43" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="23"/>
+      <c r="BC43" s="23"/>
+      <c r="BD43" s="23"/>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24" t="s">
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
       <c r="P44" s="20" t="s">
         <v>24</v>
       </c>
@@ -5515,30 +5765,30 @@
       <c r="AR44" s="16">
         <v>0.6028</v>
       </c>
-      <c r="AU44" s="26" t="s">
+      <c r="AU44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AV44" s="25">
+      <c r="AV44" s="23">
         <v>2.1602999999999999</v>
       </c>
-      <c r="AW44" s="25" t="s">
+      <c r="AW44" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AX44" s="25">
+      <c r="AX44" s="23">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="AY44" s="25">
+      <c r="AY44" s="23">
         <v>1.4630000000000001</v>
       </c>
-      <c r="AZ44" s="25">
+      <c r="AZ44" s="23">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="BA44" s="25">
+      <c r="BA44" s="23">
         <v>0.3075</v>
       </c>
-      <c r="BB44" s="25"/>
-      <c r="BC44" s="25"/>
-      <c r="BD44" s="25"/>
+      <c r="BB44" s="23"/>
+      <c r="BC44" s="23"/>
+      <c r="BD44" s="23"/>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
@@ -5660,30 +5910,30 @@
       <c r="AR45" s="16">
         <v>1</v>
       </c>
-      <c r="AU45" s="26" t="s">
+      <c r="AU45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AV45" s="25">
+      <c r="AV45" s="23">
         <v>-2.1602999999999999</v>
       </c>
-      <c r="AW45" s="25">
+      <c r="AW45" s="23">
         <v>0.98109999999999997</v>
       </c>
-      <c r="AX45" s="25">
-        <v>1</v>
-      </c>
-      <c r="AY45" s="25">
+      <c r="AX45" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="23">
         <v>-1.4630000000000001</v>
       </c>
-      <c r="AZ45" s="25">
+      <c r="AZ45" s="23">
         <v>0.92430000000000001</v>
       </c>
-      <c r="BA45" s="25">
-        <v>1</v>
-      </c>
-      <c r="BB45" s="25"/>
-      <c r="BC45" s="25"/>
-      <c r="BD45" s="25"/>
+      <c r="BA45" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="23"/>
+      <c r="BC45" s="23"/>
+      <c r="BD45" s="23"/>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
@@ -5805,30 +6055,30 @@
       <c r="AR46" s="16">
         <v>0.98709999999999998</v>
       </c>
-      <c r="AU46" s="26" t="s">
+      <c r="AU46" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AV46" s="25">
+      <c r="AV46" s="23">
         <v>0.81840000000000002</v>
       </c>
-      <c r="AW46" s="25">
+      <c r="AW46" s="23">
         <v>0.21049999999999999</v>
       </c>
-      <c r="AX46" s="25">
+      <c r="AX46" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AY46" s="25">
+      <c r="AY46" s="23">
         <v>-0.40810000000000002</v>
       </c>
-      <c r="AZ46" s="25">
+      <c r="AZ46" s="23">
         <v>0.65790000000000004</v>
       </c>
-      <c r="BA46" s="25">
+      <c r="BA46" s="23">
         <v>0.99099999999999999</v>
       </c>
-      <c r="BB46" s="25"/>
-      <c r="BC46" s="25"/>
-      <c r="BD46" s="25"/>
+      <c r="BB46" s="23"/>
+      <c r="BC46" s="23"/>
+      <c r="BD46" s="23"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -5950,30 +6200,30 @@
       <c r="AR47" s="16">
         <v>1</v>
       </c>
-      <c r="AU47" s="31" t="s">
+      <c r="AU47" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AV47" s="32">
+      <c r="AV47" s="26">
         <v>-0.81840000000000002</v>
       </c>
-      <c r="AW47" s="32">
+      <c r="AW47" s="26">
         <v>0.78959999999999997</v>
       </c>
-      <c r="AX47" s="32">
+      <c r="AX47" s="26">
         <v>0.9929</v>
       </c>
-      <c r="AY47" s="32">
+      <c r="AY47" s="26">
         <v>0.40810000000000002</v>
       </c>
-      <c r="AZ47" s="32">
+      <c r="AZ47" s="26">
         <v>0.3422</v>
       </c>
-      <c r="BA47" s="32">
+      <c r="BA47" s="26">
         <v>0.83909999999999996</v>
       </c>
-      <c r="BB47" s="32"/>
-      <c r="BC47" s="32"/>
-      <c r="BD47" s="32"/>
+      <c r="BB47" s="26"/>
+      <c r="BC47" s="26"/>
+      <c r="BD47" s="26"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -6095,8 +6345,18 @@
       <c r="AR48" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="35"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
+      <c r="BB48" s="36"/>
+      <c r="BC48" s="36"/>
+      <c r="BD48" s="36"/>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -6216,14 +6476,20 @@
       <c r="AR49" s="22">
         <v>1</v>
       </c>
-      <c r="AU49" s="27"/>
-      <c r="AV49" s="28" t="s">
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AW49" s="28"/>
-      <c r="AX49" s="28"/>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AW49" s="32"/>
+      <c r="AX49" s="32"/>
+      <c r="AY49" s="36"/>
+      <c r="AZ49" s="36"/>
+      <c r="BA49" s="36"/>
+      <c r="BB49" s="36"/>
+      <c r="BC49" s="36"/>
+      <c r="BD49" s="36"/>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -6263,20 +6529,26 @@
       <c r="M50" s="6">
         <v>0.89480000000000004</v>
       </c>
-      <c r="AU50" s="29" t="s">
+      <c r="AU50" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AV50" s="30" t="s">
+      <c r="AV50" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AW50" s="30" t="s">
+      <c r="AW50" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AX50" s="30" t="s">
+      <c r="AX50" s="31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY50" s="36"/>
+      <c r="AZ50" s="36"/>
+      <c r="BA50" s="36"/>
+      <c r="BB50" s="36"/>
+      <c r="BC50" s="36"/>
+      <c r="BD50" s="36"/>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -6290,53 +6562,65 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="AU51" s="26" t="s">
+      <c r="AU51" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AV51" s="25">
+      <c r="AV51" s="23">
         <v>-0.11269999999999999</v>
       </c>
-      <c r="AW51" s="25">
+      <c r="AW51" s="23">
         <v>0.54310000000000003</v>
       </c>
-      <c r="AX51" s="25">
+      <c r="AX51" s="23">
         <v>0.88859999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY51" s="36"/>
+      <c r="AZ51" s="36"/>
+      <c r="BA51" s="36"/>
+      <c r="BB51" s="36"/>
+      <c r="BC51" s="36"/>
+      <c r="BD51" s="36"/>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24" t="s">
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="AU52" s="26" t="s">
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="AU52" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AV52" s="25">
+      <c r="AV52" s="23">
         <v>0.11269999999999999</v>
       </c>
-      <c r="AW52" s="25">
+      <c r="AW52" s="23">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AX52" s="25">
+      <c r="AX52" s="23">
         <v>0.83379999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY52" s="36"/>
+      <c r="AZ52" s="36"/>
+      <c r="BA52" s="36"/>
+      <c r="BB52" s="36"/>
+      <c r="BC52" s="36"/>
+      <c r="BD52" s="36"/>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7" t="s">
         <v>11</v>
@@ -6376,20 +6660,26 @@
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
-      <c r="AU53" s="26" t="s">
+      <c r="AU53" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AV53" s="25">
+      <c r="AV53" s="23">
         <v>0.43580000000000002</v>
       </c>
-      <c r="AW53" s="25">
+      <c r="AW53" s="23">
         <v>0.33189999999999997</v>
       </c>
-      <c r="AX53" s="25">
+      <c r="AX53" s="23">
         <v>0.71079999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY53" s="36"/>
+      <c r="AZ53" s="36"/>
+      <c r="BA53" s="36"/>
+      <c r="BB53" s="36"/>
+      <c r="BC53" s="36"/>
+      <c r="BD53" s="36"/>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>0</v>
       </c>
@@ -6429,20 +6719,26 @@
       <c r="M54" s="5">
         <v>1</v>
       </c>
-      <c r="AU54" s="26" t="s">
+      <c r="AU54" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AV54" s="25">
+      <c r="AV54" s="23">
         <v>-0.43580000000000002</v>
       </c>
-      <c r="AW54" s="25">
+      <c r="AW54" s="23">
         <v>0.66820000000000002</v>
       </c>
-      <c r="AX54" s="25">
+      <c r="AX54" s="23">
         <v>0.9587</v>
       </c>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY54" s="36"/>
+      <c r="AZ54" s="36"/>
+      <c r="BA54" s="36"/>
+      <c r="BB54" s="36"/>
+      <c r="BC54" s="36"/>
+      <c r="BD54" s="36"/>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>1</v>
       </c>
@@ -6482,20 +6778,26 @@
       <c r="M55" s="5">
         <v>1</v>
       </c>
-      <c r="AU55" s="26" t="s">
+      <c r="AU55" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AV55" s="25">
+      <c r="AV55" s="23">
         <v>0.92959999999999998</v>
       </c>
-      <c r="AW55" s="25">
+      <c r="AW55" s="23">
         <v>0.18179999999999999</v>
       </c>
-      <c r="AX55" s="25">
+      <c r="AX55" s="23">
         <v>0.47960000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY55" s="36"/>
+      <c r="AZ55" s="36"/>
+      <c r="BA55" s="36"/>
+      <c r="BB55" s="36"/>
+      <c r="BC55" s="36"/>
+      <c r="BD55" s="36"/>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>2</v>
       </c>
@@ -6535,20 +6837,26 @@
       <c r="M56" s="5">
         <v>1</v>
       </c>
-      <c r="AU56" s="26" t="s">
+      <c r="AU56" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AV56" s="25">
+      <c r="AV56" s="23">
         <v>-0.92959999999999998</v>
       </c>
-      <c r="AW56" s="25">
+      <c r="AW56" s="23">
         <v>0.81830000000000003</v>
       </c>
-      <c r="AX56" s="25">
+      <c r="AX56" s="23">
         <v>0.98950000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY56" s="36"/>
+      <c r="AZ56" s="36"/>
+      <c r="BA56" s="36"/>
+      <c r="BB56" s="36"/>
+      <c r="BC56" s="36"/>
+      <c r="BD56" s="36"/>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
@@ -6588,20 +6896,26 @@
       <c r="M57" s="5">
         <v>1</v>
       </c>
-      <c r="AU57" s="26" t="s">
+      <c r="AU57" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AV57" s="25">
+      <c r="AV57" s="23">
         <v>-5.1299999999999998E-2</v>
       </c>
-      <c r="AW57" s="25">
+      <c r="AW57" s="23">
         <v>0.52010000000000001</v>
       </c>
-      <c r="AX57" s="25">
+      <c r="AX57" s="23">
         <v>0.88560000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY57" s="36"/>
+      <c r="AZ57" s="36"/>
+      <c r="BA57" s="36"/>
+      <c r="BB57" s="36"/>
+      <c r="BC57" s="36"/>
+      <c r="BD57" s="36"/>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -6641,20 +6955,26 @@
       <c r="M58" s="6">
         <v>0.98709999999999998</v>
       </c>
-      <c r="AU58" s="26" t="s">
+      <c r="AU58" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV58" s="25">
+      <c r="AV58" s="23">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="AW58" s="25">
+      <c r="AW58" s="23">
         <v>0.48</v>
       </c>
-      <c r="AX58" s="25">
+      <c r="AX58" s="23">
         <v>0.85560000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY58" s="36"/>
+      <c r="AZ58" s="36"/>
+      <c r="BA58" s="36"/>
+      <c r="BB58" s="36"/>
+      <c r="BC58" s="36"/>
+      <c r="BD58" s="36"/>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -6668,53 +6988,65 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="AU59" s="26" t="s">
+      <c r="AU59" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AV59" s="25">
+      <c r="AV59" s="23">
         <v>-2.2799</v>
       </c>
-      <c r="AW59" s="25">
+      <c r="AW59" s="23">
         <v>0.98470000000000002</v>
       </c>
-      <c r="AX59" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AX59" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY59" s="36"/>
+      <c r="AZ59" s="36"/>
+      <c r="BA59" s="36"/>
+      <c r="BB59" s="36"/>
+      <c r="BC59" s="36"/>
+      <c r="BD59" s="36"/>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24" t="s">
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24" t="s">
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="AU60" s="26" t="s">
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="AU60" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AV60" s="25">
+      <c r="AV60" s="23">
         <v>2.2799</v>
       </c>
-      <c r="AW60" s="25" t="s">
+      <c r="AW60" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AX60" s="25">
+      <c r="AX60" s="23">
         <v>6.6100000000000006E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY60" s="36"/>
+      <c r="AZ60" s="36"/>
+      <c r="BA60" s="36"/>
+      <c r="BB60" s="36"/>
+      <c r="BC60" s="36"/>
+      <c r="BD60" s="36"/>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
         <v>11</v>
@@ -6754,20 +7086,26 @@
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
-      <c r="AU61" s="26" t="s">
+      <c r="AU61" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AV61" s="25">
+      <c r="AV61" s="23">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="AW61" s="25">
+      <c r="AW61" s="23">
         <v>0.49359999999999998</v>
       </c>
-      <c r="AX61" s="25">
+      <c r="AX61" s="23">
         <v>0.86719999999999997</v>
       </c>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY61" s="36"/>
+      <c r="AZ61" s="36"/>
+      <c r="BA61" s="36"/>
+      <c r="BB61" s="36"/>
+      <c r="BC61" s="36"/>
+      <c r="BD61" s="36"/>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -6809,20 +7147,26 @@
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="AU62" s="31" t="s">
+      <c r="AU62" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AV62" s="32">
+      <c r="AV62" s="26">
         <v>-1.7100000000000001E-2</v>
       </c>
-      <c r="AW62" s="32">
+      <c r="AW62" s="26">
         <v>0.50649999999999995</v>
       </c>
-      <c r="AX62" s="32">
+      <c r="AX62" s="26">
         <v>0.87050000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY62" s="36"/>
+      <c r="AZ62" s="36"/>
+      <c r="BA62" s="36"/>
+      <c r="BB62" s="36"/>
+      <c r="BC62" s="36"/>
+      <c r="BD62" s="36"/>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -6865,7 +7209,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -7049,65 +7393,65 @@
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24" t="s">
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-      <c r="P70" s="23" t="s">
+      <c r="P70" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
       <c r="U70" s="17"/>
-      <c r="V70" s="23" t="s">
+      <c r="V70" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23"/>
-      <c r="Z70" s="23"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
       <c r="AA70" s="17"/>
-      <c r="AB70" s="23" t="s">
+      <c r="AB70" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC70" s="23"/>
-      <c r="AD70" s="23"/>
-      <c r="AE70" s="23"/>
-      <c r="AF70" s="23"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
       <c r="AG70" s="17"/>
-      <c r="AH70" s="23" t="s">
+      <c r="AH70" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AI70" s="23"/>
-      <c r="AJ70" s="23"/>
-      <c r="AK70" s="23"/>
-      <c r="AL70" s="23"/>
+      <c r="AI70" s="29"/>
+      <c r="AJ70" s="29"/>
+      <c r="AK70" s="29"/>
+      <c r="AL70" s="29"/>
       <c r="AM70" s="17"/>
-      <c r="AN70" s="23" t="s">
+      <c r="AN70" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AO70" s="23"/>
-      <c r="AP70" s="23"/>
-      <c r="AQ70" s="23"/>
-      <c r="AR70" s="23"/>
+      <c r="AO70" s="29"/>
+      <c r="AP70" s="29"/>
+      <c r="AQ70" s="29"/>
+      <c r="AR70" s="29"/>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
@@ -7933,24 +8277,24 @@
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24" t="s">
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
       <c r="P78" s="20" t="s">
         <v>24</v>
       </c>
@@ -8693,24 +9037,24 @@
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24" t="s">
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24" t="s">
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
@@ -8973,24 +9317,24 @@
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24" t="s">
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24" t="s">
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -9268,28 +9612,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="AV34:AX34"/>
-    <mergeCell ref="AY34:BA34"/>
-    <mergeCell ref="BB34:BD34"/>
-    <mergeCell ref="AV49:AX49"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="V70:Z70"/>
+    <mergeCell ref="AB70:AF70"/>
+    <mergeCell ref="AH70:AL70"/>
+    <mergeCell ref="AN70:AR70"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AB36:AF36"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AN36:AR36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="P2:T2"/>
     <mergeCell ref="B94:E94"/>
     <mergeCell ref="F94:I94"/>
     <mergeCell ref="J94:M94"/>
@@ -9306,27 +9647,30 @@
     <mergeCell ref="F78:I78"/>
     <mergeCell ref="J78:M78"/>
     <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AB36:AF36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AN36:AR36"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="V70:Z70"/>
-    <mergeCell ref="AB70:AF70"/>
-    <mergeCell ref="AH70:AL70"/>
-    <mergeCell ref="AN70:AR70"/>
+    <mergeCell ref="AV34:AX34"/>
+    <mergeCell ref="AY34:BA34"/>
+    <mergeCell ref="BB34:BD34"/>
+    <mergeCell ref="AV49:AX49"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="AV17:AX17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
